--- a/backend/common/primary_data/油尖旺区升学数据.xlsx
+++ b/backend/common/primary_data/油尖旺区升学数据.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15740"/>
+    <workbookView windowHeight="15740" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="循道学校" sheetId="1" r:id="rId1"/>
@@ -14,8 +14,8 @@
     <sheet name="东华三院罗裕积小学" sheetId="5" r:id="rId5"/>
     <sheet name="保良局陳守仁小學" sheetId="6" r:id="rId6"/>
     <sheet name="德信学校" sheetId="7" r:id="rId7"/>
-    <sheet name="油麻地天主教小学" sheetId="8" r:id="rId8"/>
-    <sheet name="油麻地天主教小学（海泓道）" sheetId="9" r:id="rId9"/>
+    <sheet name="油蔴地天主教小学" sheetId="8" r:id="rId8"/>
+    <sheet name="油蔴地天主教小学（海泓道）" sheetId="9" r:id="rId9"/>
     <sheet name="東莞同鄉會方樹泉學校" sheetId="10" r:id="rId10"/>
     <sheet name="大角嘴天主教小学" sheetId="11" r:id="rId11"/>
     <sheet name="中华基督教会协和小学" sheetId="12" r:id="rId12"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="938" uniqueCount="437">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="934" uniqueCount="425">
   <si>
     <t>是否可统计升中数据</t>
   </si>
@@ -101,7 +101,7 @@
     <t>何明华会督银禧中学</t>
   </si>
   <si>
-    <t>沙田崇员中学</t>
+    <t>沙田崇真中学</t>
   </si>
   <si>
     <t>沙田官立中学</t>
@@ -213,9 +213,6 @@
   </si>
   <si>
     <t>总人数</t>
-  </si>
-  <si>
-    <t>2024-2025</t>
   </si>
   <si>
     <t>拔萃男书院</t>
@@ -587,6 +584,9 @@
     <t>仁济医院罗陈楚思中学</t>
   </si>
   <si>
+    <t>2024-2025</t>
+  </si>
+  <si>
     <t>观塘官立中学</t>
   </si>
   <si>
@@ -614,8 +614,49 @@
     <t>裘锦秋中学(葵涌)</t>
   </si>
   <si>
-    <t>BISHOP HALL JUBILEE SCHOOL
-何明華會督銀禧中學</t>
+    <r>
+      <t>何明</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>華會</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>督</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>銀</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>禧中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>學</t>
+    </r>
   </si>
   <si>
     <r>
@@ -630,263 +671,1613 @@
     </r>
   </si>
   <si>
-    <t>CCC MING KEI COLLEGE
-中華基督教會銘基書院</t>
-  </si>
-  <si>
-    <t>CHEUNG CHUK SHAN COLLEGE
-張祝珊英文中學</t>
-  </si>
-  <si>
-    <t>CREATIVE SECONDARY SCHOOL
-啓思中學</t>
-  </si>
-  <si>
-    <t>DIOCESAN BOYS' SCHOOL
-拔萃男書院</t>
-  </si>
-  <si>
-    <t>DIOCESAN GIRLS' SCHOOL
-拔萃女書院</t>
-  </si>
-  <si>
-    <t>ECF SAINT TOO CANAAN COLLEGE
-基督教中國佈道會聖道迦南書院</t>
-  </si>
-  <si>
-    <t>FUKIEN SECONDARY SCHOOL
-福建中學</t>
-  </si>
-  <si>
-    <t>G.T. (ELLEN YEUNG) COLLEGE
-優才（楊殷有娣）書院</t>
-  </si>
-  <si>
-    <t>GOOD HOPE SCHOOL
-德望學校</t>
-  </si>
-  <si>
-    <t>HEEP YUNN SCHOOL
-協恩中學</t>
-  </si>
-  <si>
-    <t>HKFYG LEE SHAU KEE COLLEGE
-香港青年協會李兆基書院</t>
-  </si>
-  <si>
-    <t>HKMA DAVID LI KWOK PO COLLEGE
-香港管理專業協會李國寶中學</t>
-  </si>
-  <si>
-    <t>HKUGA COLLEGE
-港大同學會書院</t>
-  </si>
-  <si>
-    <t>LA SALLE COLLEGE
-喇沙書院</t>
-  </si>
-  <si>
-    <t>LAM TAI FAI COLLEGE
-林大輝中學</t>
-  </si>
-  <si>
-    <t>MARYMOUNT SECONDARY SCHOOL
-瑪利曼中學</t>
-  </si>
-  <si>
-    <t>METHODIST COLLEGE
-循道中學</t>
-  </si>
-  <si>
-    <t>PO LEUNG KUK NGAN PO LING COLLEGE
-保良局顏寶鈴書院</t>
-  </si>
-  <si>
-    <t>QUEEN ELIZABETH SCHOOL
-伊利沙伯中學</t>
-  </si>
-  <si>
-    <t>QUEEN'S COLLEGE
-皇仁書院</t>
-  </si>
-  <si>
-    <t>SKH LAM WOO MEMORIAL SECONDARY SCHOOL
-聖公會林護紀念中學</t>
-  </si>
-  <si>
-    <t>ST FRANCIS XAVIER'S COLLEGE
-聖芳濟書院</t>
-  </si>
-  <si>
-    <t>ST JOSEPH'S COLLEGE
-聖若瑟書院</t>
-  </si>
-  <si>
-    <t>ST MARGARET'S CO-EDU ENG SEC &amp; PRI SCH
-聖瑪加利男女英文中小學</t>
-  </si>
-  <si>
-    <t>ST MARY'S CANOSSIAN COLLEGE
-嘉諾撒聖瑪利書院</t>
-  </si>
-  <si>
-    <t>ST PAUL'S CO-EDUCATIONAL COLLEGE
-聖保羅男女中學</t>
-  </si>
-  <si>
-    <t>ST PAUL'S COLLEGE
-聖保羅書院</t>
-  </si>
-  <si>
-    <t>ST PAUL'S CONVENT SCHOOL
-聖保祿學校</t>
-  </si>
-  <si>
-    <t>ST STEPHEN'S COLLEGE
-聖士提反書院</t>
-  </si>
-  <si>
-    <t>ST STEPHEN'S GIRLS' COLLEGE
-聖士提反女子中學</t>
-  </si>
-  <si>
-    <t>STEWARDS POOI KEI COLLEGE
-香港神託會培基書院</t>
-  </si>
-  <si>
-    <t>TRUE LIGHT GIRLS' COLLEGE
-真光女書院</t>
-  </si>
-  <si>
-    <t>TSUNG TSIN CHRISTIAN ACADEMY
-基督教崇真中學</t>
-  </si>
-  <si>
-    <t>UNITED CHRISTIAN COLLEGE (KOWLOON EAST)
-滙基書院（東九龍）</t>
-  </si>
-  <si>
-    <t>WAH YAN COLLEGE, HONG KONG
-香港華仁書院</t>
-  </si>
-  <si>
-    <t>WAH YAN COLLEGE, KOWLOON
-華仁書院（九龍）</t>
-  </si>
-  <si>
-    <t>YING WA GIRLS' SCHOOL
-英華女學校</t>
-  </si>
-  <si>
-    <t>YMCA OF HONG KONG CHRISTIAN COLLEGE
-港青基信書院</t>
-  </si>
-  <si>
-    <t>YUEN LONG MERCHANTS ASSOCIATION SEC SCH
-元朗商會中學</t>
-  </si>
-  <si>
-    <t>Others 其他 (直資/國際/海外學校)</t>
-  </si>
-  <si>
-    <t>BELILIOS PUBLIC SCHOOL
-庇理羅士女子中學</t>
-  </si>
-  <si>
-    <t>CREATIVE SECONDARY SCHOOL
-啟思中學</t>
-  </si>
-  <si>
-    <t>DIOCESAN BOYS’ SCHOOL
-拔萃男書院</t>
-  </si>
-  <si>
-    <t>DIOCESAN GIRLS’ SCHOOL
-拔萃女書院</t>
-  </si>
-  <si>
-    <t>HOLY TRINITY COLLEGE
-寶血會上智英文書院</t>
-  </si>
-  <si>
-    <t>MARYKNOLL CONVENT SCH (SEC SECTION)
-瑪利諾修院學校（中學部）</t>
-  </si>
-  <si>
-    <t>PLK TONG NAI KAN JUNIOR SEC COLLEGE
-保良局唐乃勤初中書院</t>
-  </si>
-  <si>
-    <t>RAIMONDI COLLEGE
-高主教書院</t>
-  </si>
-  <si>
-    <t>ST JOSEPH’S COLLEGE
-聖若瑟書院</t>
-  </si>
-  <si>
-    <t>ST MARGARET’S CO-EDU ENG SEC &amp; PRI SCH
-聖瑪加利男女英文中小學</t>
-  </si>
-  <si>
-    <t>ST PAUL’S CO-EDUCATIONAL COLLEGE
-聖保羅男女中學</t>
-  </si>
-  <si>
-    <t>ST PAUL’S COLLEGE
-聖保羅書院</t>
-  </si>
-  <si>
-    <t>ST PAUL’S CONVENT SCHOOL
-聖保祿學校</t>
-  </si>
-  <si>
-    <t>ST STEPHEN’S COLLEGE
-聖士提反書院</t>
-  </si>
-  <si>
-    <t>TAK SUN SECONDARY SCHOOL
-德信中學</t>
-  </si>
-  <si>
-    <t>TWGHS WONG FUT NAM COLLEGE
-東華三院黃笏南中學</t>
-  </si>
-  <si>
-    <t>EVANGEL COLLEGE
-播道書院</t>
-  </si>
-  <si>
-    <t>JOCKEY CLUB TI-I COLLEGE
-賽馬會體藝中學</t>
-  </si>
-  <si>
-    <t>LAW TING PONG SECONDARY SCHOOL
-羅定邦中學</t>
-  </si>
-  <si>
-    <t>PO LEUNG KUK LAWS FOUNDATION COLLEGE
-保良局羅氏基金中學</t>
-  </si>
-  <si>
-    <t>SKH TSANG SHIU TIM SECONDARY SCHOOL
-聖公會曾肇添中學</t>
-  </si>
-  <si>
-    <t>ST ROSE OF LIMA’S COLLEGE
-聖羅撒書院</t>
-  </si>
-  <si>
-    <t>ST STEPHEN’S GIRLS’ COLLEGE
-聖士提反女子中學</t>
-  </si>
-  <si>
-    <t>TRUE LIGHT GIRLS’ COLLEGE
-真光女書院</t>
-  </si>
-  <si>
-    <t>YING WA COLLEGE
-英華書院</t>
+    <r>
+      <t>中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>華</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>基督教</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>會銘</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>基</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>書</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>院</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>張</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>祝珊英文中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>學</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>啓</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>思中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>學</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>拔萃男</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>書</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>院</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>拔萃女</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>書</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>院</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>基督教中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>國佈</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>道</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>會聖</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>道迦南</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>書</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>院</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>福建中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>學</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>優</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>才（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>楊</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>殷有娣）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>書</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>院</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>德望</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>學</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>校</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>協</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>恩中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>學</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>香港青年</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>協會</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>李兆基</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>書</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>院</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>香港管理</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>專業協會</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>李</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>國寶</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>學</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>港大同</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>學會書</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>院</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>喇沙</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>書</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>院</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>林大</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>輝</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>學</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>瑪</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>利曼中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>學</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>循道中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>學</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>保良局</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>顏寶鈴書</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>院</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>伊利沙伯中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>學</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>皇仁</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>書</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>院</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>聖</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>公</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>會</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>林</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>護紀</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>念中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>學</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>聖</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>芳</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>濟書</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>院</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>聖</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>若瑟</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>書</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>院</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>聖瑪</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>加利男女英文中小</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>學</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>嘉</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>諾</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>撒</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>聖瑪</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>利</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>書</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>院</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>聖</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>保</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>羅</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>男女中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>學</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>聖</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>保</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>羅書</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>院</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>聖</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>保</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>祿學</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>校</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>聖</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>士提反</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>書</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>院</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>聖</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>士提反女子中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>學</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>香港神</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>託會</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>培基</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>書</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>院</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>真光女</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>書</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>院</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>基督教崇真中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>學</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>滙</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>基</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>書</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>院（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>東</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>九</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>龍</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>香港</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>華</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>仁</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>書</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>院</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>華</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>仁</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>書</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>院（九</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>龍</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>英</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>華</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>女</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>學</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>校</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>港青基信</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>書</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>院</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>元朗商</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>會</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>學</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>其他 (直</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>資</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>國際</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/海外</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>學</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>校)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>庇理</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>羅</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>士女子中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>學</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>啟</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>思中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>學</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>寶</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>血</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>會</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>上智英文</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>書</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>院</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>瑪</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>利</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>諾</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>修院</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>學</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>校（中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>學</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>部）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>保良局唐乃勤初中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>書</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>院</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>高主教</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>書</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>院</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>德信中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>學</t>
+    </r>
+  </si>
+  <si>
+    <t>東華三院黃笏南中學</t>
+  </si>
+  <si>
+    <r>
+      <t>播道</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>書</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>院</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>賽馬會體藝</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>學</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>羅</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>定邦中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>學</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>保良局</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>羅</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>氏基金中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>學</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>聖</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>公</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>會</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>曾肇添中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>學</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>聖羅</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>撒</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>書</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>院</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>英</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>華書</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>院</t>
+    </r>
   </si>
   <si>
     <r>
@@ -913,13 +2304,7 @@
     <t>香港管理专业协会会李国宝中学</t>
   </si>
   <si>
-    <t>東華三院黃笏南中學</t>
-  </si>
-  <si>
     <t>圣言中学</t>
-  </si>
-  <si>
-    <t>沙田崇真中学</t>
   </si>
   <si>
     <t>圣若瑟英文中学</t>
@@ -968,6 +2353,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
       <t>中</t>
     </r>
     <r>
@@ -1063,6 +2453,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
       <t>中</t>
     </r>
     <r>
@@ -1100,6 +2495,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
       <t>賽馬會體藝</t>
     </r>
     <r>
@@ -1169,6 +2569,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
       <t>聖</t>
     </r>
     <r>
@@ -1251,6 +2656,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
       <t>衞</t>
     </r>
     <r>
@@ -1308,6 +2718,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
       <t>港大同</t>
     </r>
     <r>
@@ -1332,6 +2747,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
       <t>香港神</t>
     </r>
     <r>
@@ -2626,7 +4046,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2672,11 +4092,20 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -2705,14 +4134,17 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -3232,8 +4664,8 @@
   <sheetPr codeName="循道学校"/>
   <dimension ref="A1:E50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="18" customHeight="1" outlineLevelCol="4"/>
@@ -3266,404 +4698,455 @@
       <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="28">
-        <v>0.999012345679012</v>
+      <c r="B2" s="32">
+        <v>2025</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="26">
-        <v>1</v>
-      </c>
-      <c r="E2" s="29" t="s">
+      <c r="D2" s="30">
+        <v>1</v>
+      </c>
+      <c r="E2" s="33" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:5">
+      <c r="B3" s="32"/>
       <c r="C3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="26">
+      <c r="D3" s="30">
         <v>2</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:5">
+      <c r="B4" s="32"/>
       <c r="C4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="26">
+      <c r="D4" s="30">
         <v>2</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:5">
+      <c r="B5" s="32"/>
       <c r="C5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="26">
+      <c r="D5" s="30">
         <v>6</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:5">
+      <c r="B6" s="32"/>
       <c r="C6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="26">
+      <c r="D6" s="30">
         <v>3</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:5">
+      <c r="B7" s="32"/>
       <c r="C7" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="26">
+      <c r="D7" s="30">
         <v>5</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:5">
+      <c r="B8" s="32"/>
       <c r="C8" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="26">
+      <c r="D8" s="30">
         <v>1</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:5">
+      <c r="B9" s="32"/>
       <c r="C9" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="26">
+      <c r="D9" s="30">
         <v>2</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:5">
+      <c r="B10" s="32"/>
       <c r="C10" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="26">
+      <c r="D10" s="30">
         <v>11</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:5">
+      <c r="B11" s="32"/>
       <c r="C11" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="26">
+      <c r="D11" s="30">
         <v>1</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:5">
+      <c r="B12" s="32"/>
       <c r="C12" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="26">
+      <c r="D12" s="30">
         <v>1</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:5">
+      <c r="B13" s="32"/>
       <c r="C13" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="26">
+      <c r="D13" s="30">
         <v>1</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:5">
+      <c r="B14" s="32"/>
       <c r="C14" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="26">
+      <c r="D14" s="30">
         <v>1</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:5">
+      <c r="B15" s="32"/>
       <c r="C15" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="26">
+      <c r="D15" s="30">
         <v>1</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:5">
+      <c r="B16" s="32"/>
       <c r="C16" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" customHeight="1" spans="3:4">
+      <c r="D16" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" customHeight="1" spans="2:4">
+      <c r="B17" s="32"/>
       <c r="C17" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="26">
+      <c r="D17" s="30">
         <v>3</v>
       </c>
     </row>
-    <row r="18" customHeight="1" spans="3:4">
+    <row r="18" customHeight="1" spans="2:4">
+      <c r="B18" s="32"/>
       <c r="C18" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D18" s="26">
+      <c r="D18" s="30">
         <v>3</v>
       </c>
     </row>
-    <row r="19" customHeight="1" spans="3:4">
+    <row r="19" customHeight="1" spans="2:4">
+      <c r="B19" s="32"/>
       <c r="C19" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D19" s="26">
+      <c r="D19" s="30">
         <v>2</v>
       </c>
     </row>
-    <row r="20" customHeight="1" spans="3:4">
+    <row r="20" customHeight="1" spans="2:4">
+      <c r="B20" s="32"/>
       <c r="C20" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D20" s="26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" customHeight="1" spans="3:4">
+      <c r="D20" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" customHeight="1" spans="2:4">
+      <c r="B21" s="32"/>
       <c r="C21" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D21" s="26">
+      <c r="D21" s="30">
         <v>2</v>
       </c>
     </row>
-    <row r="22" customHeight="1" spans="3:4">
+    <row r="22" customHeight="1" spans="2:4">
+      <c r="B22" s="32"/>
       <c r="C22" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D22" s="26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" customHeight="1" spans="3:4">
+      <c r="D22" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" customHeight="1" spans="2:4">
+      <c r="B23" s="32"/>
       <c r="C23" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D23" s="26">
+      <c r="D23" s="30">
         <v>2</v>
       </c>
     </row>
-    <row r="24" customHeight="1" spans="3:4">
+    <row r="24" customHeight="1" spans="2:4">
+      <c r="B24" s="32"/>
       <c r="C24" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D24" s="26">
+      <c r="D24" s="30">
         <v>2</v>
       </c>
     </row>
-    <row r="25" customHeight="1" spans="3:4">
+    <row r="25" customHeight="1" spans="2:4">
+      <c r="B25" s="32"/>
       <c r="C25" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D25" s="26">
+      <c r="D25" s="30">
         <v>2</v>
       </c>
     </row>
-    <row r="26" customHeight="1" spans="3:4">
+    <row r="26" customHeight="1" spans="2:4">
+      <c r="B26" s="32"/>
       <c r="C26" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D26" s="26">
+      <c r="D26" s="30">
         <v>2</v>
       </c>
     </row>
-    <row r="27" customHeight="1" spans="3:4">
+    <row r="27" customHeight="1" spans="2:4">
+      <c r="B27" s="32"/>
       <c r="C27" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D27" s="26">
+      <c r="D27" s="30">
         <v>2</v>
       </c>
     </row>
-    <row r="28" customHeight="1" spans="3:4">
+    <row r="28" customHeight="1" spans="2:4">
+      <c r="B28" s="32"/>
       <c r="C28" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D28" s="26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" customHeight="1" spans="3:4">
+      <c r="D28" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" customHeight="1" spans="2:4">
+      <c r="B29" s="32"/>
       <c r="C29" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D29" s="26">
+      <c r="D29" s="30">
         <v>2</v>
       </c>
     </row>
-    <row r="30" customHeight="1" spans="3:4">
+    <row r="30" customHeight="1" spans="2:4">
+      <c r="B30" s="32"/>
       <c r="C30" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D30" s="26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" customHeight="1" spans="3:4">
+      <c r="D30" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" customHeight="1" spans="2:4">
+      <c r="B31" s="32"/>
       <c r="C31" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D31" s="26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" customHeight="1" spans="3:4">
+      <c r="D31" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" customHeight="1" spans="2:4">
+      <c r="B32" s="32"/>
       <c r="C32" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D32" s="26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" customHeight="1" spans="3:4">
+      <c r="D32" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" customHeight="1" spans="2:4">
+      <c r="B33" s="32"/>
       <c r="C33" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D33" s="26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" customHeight="1" spans="3:4">
+      <c r="D33" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" customHeight="1" spans="2:4">
+      <c r="B34" s="32"/>
       <c r="C34" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D34" s="26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" customHeight="1" spans="3:4">
+      <c r="D34" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" customHeight="1" spans="2:4">
+      <c r="B35" s="32"/>
       <c r="C35" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D35" s="26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" customHeight="1" spans="3:4">
+      <c r="D35" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" customHeight="1" spans="2:4">
+      <c r="B36" s="32"/>
       <c r="C36" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D36" s="26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" customHeight="1" spans="3:4">
+      <c r="D36" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" customHeight="1" spans="2:4">
+      <c r="B37" s="32"/>
       <c r="C37" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D37" s="26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" customHeight="1" spans="3:4">
+      <c r="D37" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" customHeight="1" spans="2:4">
+      <c r="B38" s="32"/>
       <c r="C38" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="D38" s="26">
+      <c r="D38" s="30">
         <v>3</v>
       </c>
     </row>
-    <row r="39" customHeight="1" spans="3:4">
+    <row r="39" customHeight="1" spans="2:4">
+      <c r="B39" s="32"/>
       <c r="C39" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D39" s="26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" customHeight="1" spans="3:4">
+      <c r="D39" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" customHeight="1" spans="2:4">
+      <c r="B40" s="32"/>
       <c r="C40" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D40" s="26">
+      <c r="D40" s="30">
         <v>3</v>
       </c>
     </row>
-    <row r="41" customHeight="1" spans="3:4">
+    <row r="41" customHeight="1" spans="2:4">
+      <c r="B41" s="32"/>
       <c r="C41" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D41" s="26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" customHeight="1" spans="3:4">
+      <c r="D41" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" customHeight="1" spans="2:4">
+      <c r="B42" s="32"/>
       <c r="C42" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="D42" s="26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" customHeight="1" spans="3:4">
+      <c r="D42" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" customHeight="1" spans="2:4">
+      <c r="B43" s="32"/>
       <c r="C43" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="D43" s="26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" customHeight="1" spans="3:4">
+      <c r="D43" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" customHeight="1" spans="2:4">
+      <c r="B44" s="32"/>
       <c r="C44" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="D44" s="26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" customHeight="1" spans="3:4">
+      <c r="D44" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" customHeight="1" spans="2:4">
+      <c r="B45" s="32"/>
       <c r="C45" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="D45" s="26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" customHeight="1" spans="3:4">
+      <c r="D45" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" customHeight="1" spans="2:4">
+      <c r="B46" s="32"/>
       <c r="C46" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="D46" s="26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" customHeight="1" spans="3:4">
+      <c r="D46" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" customHeight="1" spans="2:4">
+      <c r="B47" s="32"/>
       <c r="C47" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="D47" s="26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" customHeight="1" spans="3:4">
+      <c r="D47" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" customHeight="1" spans="2:4">
+      <c r="B48" s="32"/>
       <c r="C48" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="D48" s="26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" customHeight="1" spans="3:4">
+      <c r="D48" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" customHeight="1" spans="2:4">
+      <c r="B49" s="32"/>
       <c r="C49" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="D49" s="26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" customHeight="1" spans="3:4">
+      <c r="D49" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" customHeight="1" spans="2:4">
+      <c r="B50" s="32"/>
       <c r="C50" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="D50" s="26">
+      <c r="D50" s="30">
         <v>1</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:B50"/>
+  </mergeCells>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" display="https://www.kmsch.edu.hk/tc/content.php?wid=229"/>
   </hyperlinks>
@@ -3705,91 +5188,91 @@
     </row>
     <row r="2" ht="16" spans="1:5">
       <c r="A2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>354</v>
+        <v>342</v>
       </c>
     </row>
     <row r="3" ht="15.2"/>
     <row r="4" ht="15.2" spans="1:5">
       <c r="C4" t="s">
-        <v>355</v>
+        <v>343</v>
       </c>
     </row>
     <row r="5" ht="15.2"/>
     <row r="6" ht="15.2" spans="1:5">
       <c r="C6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="7" ht="15.2"/>
     <row r="8" ht="15.2" spans="1:5">
       <c r="C8" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
     </row>
     <row r="9" ht="15.2"/>
     <row r="10" ht="15.2" spans="1:5">
       <c r="C10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11" ht="15.2"/>
     <row r="12" ht="15.2" spans="1:5">
       <c r="C12" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
     </row>
     <row r="13" ht="15.2"/>
     <row r="14" ht="15.2" spans="1:5">
       <c r="C14" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
     </row>
     <row r="15" ht="15.2"/>
     <row r="16" ht="15.2" spans="1:5">
       <c r="C16" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
     </row>
     <row r="17" ht="15.2"/>
     <row r="18" ht="15.2" spans="3:3">
       <c r="C18" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
     </row>
     <row r="19" ht="15.2"/>
     <row r="20" ht="15.2" spans="3:3">
       <c r="C20" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
     </row>
     <row r="21" ht="15.2"/>
     <row r="22" ht="15.2" spans="3:3">
       <c r="C22" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
     </row>
     <row r="23" ht="15.2"/>
     <row r="24" ht="15.2" spans="3:3">
       <c r="C24" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
     </row>
     <row r="25" ht="15.2"/>
     <row r="26" ht="15.2" spans="3:3">
       <c r="C26" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
     </row>
     <row r="27" ht="15.2"/>
     <row r="28" ht="15.2" spans="3:3">
       <c r="C28" t="s">
-        <v>297</v>
+        <v>285</v>
       </c>
     </row>
   </sheetData>
@@ -3848,13 +5331,13 @@
         <v>17</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
     </row>
     <row r="3" ht="17" spans="1:5">
       <c r="B3" s="12"/>
       <c r="C3" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D3" s="6">
         <v>13</v>
@@ -3863,7 +5346,7 @@
     <row r="4" ht="17" spans="1:5">
       <c r="B4" s="12"/>
       <c r="C4" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D4" s="6">
         <v>10</v>
@@ -3899,7 +5382,7 @@
     <row r="8" ht="17" spans="1:5">
       <c r="B8" s="12"/>
       <c r="C8" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D8" s="6">
         <v>5</v>
@@ -3935,7 +5418,7 @@
     <row r="12" ht="17" spans="1:5">
       <c r="B12" s="12"/>
       <c r="C12" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D12" s="6">
         <v>2</v>
@@ -3944,7 +5427,7 @@
     <row r="13" ht="17" spans="1:5">
       <c r="B13" s="12"/>
       <c r="C13" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D13" s="6">
         <v>2</v>
@@ -3953,7 +5436,7 @@
     <row r="14" ht="17" spans="1:5">
       <c r="B14" s="12"/>
       <c r="C14" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D14" s="6">
         <v>2</v>
@@ -3962,7 +5445,7 @@
     <row r="15" ht="34" spans="1:5">
       <c r="B15" s="12"/>
       <c r="C15" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D15" s="6">
         <v>2</v>
@@ -3971,7 +5454,7 @@
     <row r="16" ht="17" spans="1:5">
       <c r="B16" s="12"/>
       <c r="C16" s="6" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="D16" s="6">
         <v>1</v>
@@ -3980,7 +5463,7 @@
     <row r="17" ht="17" spans="2:4">
       <c r="B17" s="12"/>
       <c r="C17" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D17" s="6">
         <v>1</v>
@@ -3989,7 +5472,7 @@
     <row r="18" ht="17" spans="2:4">
       <c r="B18" s="12"/>
       <c r="C18" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D18" s="6">
         <v>1</v>
@@ -4016,7 +5499,7 @@
     <row r="21" ht="17" spans="2:4">
       <c r="B21" s="12"/>
       <c r="C21" s="6" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="D21" s="6">
         <v>1</v>
@@ -4043,7 +5526,7 @@
     <row r="24" ht="17" spans="2:4">
       <c r="B24" s="12"/>
       <c r="C24" s="6" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="D24" s="6">
         <v>1</v>
@@ -4061,7 +5544,7 @@
     <row r="26" ht="34" spans="2:4">
       <c r="B26" s="12"/>
       <c r="C26" s="6" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="D26" s="6">
         <v>1</v>
@@ -4079,7 +5562,7 @@
     <row r="28" ht="17" spans="2:4">
       <c r="B28" s="12"/>
       <c r="C28" s="6" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="D28" s="6">
         <v>1</v>
@@ -4088,7 +5571,7 @@
     <row r="29" ht="17" spans="2:4">
       <c r="B29" s="12"/>
       <c r="C29" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D29" s="6">
         <v>1</v>
@@ -4097,7 +5580,7 @@
     <row r="30" ht="17" spans="2:4">
       <c r="B30" s="12"/>
       <c r="C30" s="6" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="D30" s="6">
         <v>1</v>
@@ -4106,7 +5589,7 @@
     <row r="31" ht="17" spans="2:4">
       <c r="B31" s="12"/>
       <c r="C31" s="6" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="D31" s="6">
         <v>1</v>
@@ -4124,7 +5607,7 @@
     <row r="33" ht="17" spans="2:4">
       <c r="B33" s="12"/>
       <c r="C33" s="6" t="s">
-        <v>366</v>
+        <v>354</v>
       </c>
       <c r="D33" s="6">
         <v>1</v>
@@ -4133,7 +5616,7 @@
     <row r="34" ht="17" spans="2:4">
       <c r="B34" s="12"/>
       <c r="C34" s="6" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="D34" s="6">
         <v>1</v>
@@ -4142,7 +5625,7 @@
     <row r="35" ht="17" spans="2:4">
       <c r="B35" s="12"/>
       <c r="C35" s="6" t="s">
-        <v>368</v>
+        <v>356</v>
       </c>
       <c r="D35" s="6">
         <v>1</v>
@@ -4151,7 +5634,7 @@
     <row r="36" ht="17" spans="2:4">
       <c r="B36" s="12"/>
       <c r="C36" s="6" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="D36" s="6">
         <v>1</v>
@@ -4169,7 +5652,7 @@
     <row r="38" ht="17" spans="2:4">
       <c r="B38" s="12"/>
       <c r="C38" s="6" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="D38" s="6">
         <v>18</v>
@@ -4235,13 +5718,13 @@
         <v>25</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
     </row>
     <row r="3" ht="17" spans="1:5">
       <c r="B3" s="11"/>
       <c r="C3" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D3" s="6">
         <v>17</v>
@@ -4259,7 +5742,7 @@
     <row r="5" ht="17" spans="1:5">
       <c r="B5" s="11"/>
       <c r="C5" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D5" s="6">
         <v>11</v>
@@ -4295,7 +5778,7 @@
     <row r="9" ht="17" spans="1:5">
       <c r="B9" s="11"/>
       <c r="C9" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D9" s="6">
         <v>4</v>
@@ -4313,7 +5796,7 @@
     <row r="11" ht="17" spans="1:5">
       <c r="B11" s="11"/>
       <c r="C11" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D11" s="6">
         <v>4</v>
@@ -4331,7 +5814,7 @@
     <row r="13" ht="17" spans="1:5">
       <c r="B13" s="11"/>
       <c r="C13" s="6" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="D13" s="6">
         <v>3</v>
@@ -4340,7 +5823,7 @@
     <row r="14" ht="17" spans="1:5">
       <c r="B14" s="11"/>
       <c r="C14" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D14" s="6">
         <v>3</v>
@@ -4349,7 +5832,7 @@
     <row r="15" ht="17" spans="1:5">
       <c r="B15" s="11"/>
       <c r="C15" s="6" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="D15" s="6">
         <v>2</v>
@@ -4367,7 +5850,7 @@
     <row r="17" ht="17" spans="2:4">
       <c r="B17" s="11"/>
       <c r="C17" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D17" s="6">
         <v>2</v>
@@ -4394,7 +5877,7 @@
     <row r="20" ht="17" spans="2:4">
       <c r="B20" s="11"/>
       <c r="C20" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D20" s="6">
         <v>2</v>
@@ -4421,7 +5904,7 @@
     <row r="23" ht="17" spans="2:4">
       <c r="B23" s="11"/>
       <c r="C23" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D23" s="6">
         <v>1</v>
@@ -4439,7 +5922,7 @@
     <row r="25" ht="17" spans="2:4">
       <c r="B25" s="11"/>
       <c r="C25" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D25" s="6">
         <v>1</v>
@@ -4457,7 +5940,7 @@
     <row r="27" ht="17" spans="2:4">
       <c r="B27" s="11"/>
       <c r="C27" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D27" s="6">
         <v>1</v>
@@ -4466,7 +5949,7 @@
     <row r="28" ht="17" spans="2:4">
       <c r="B28" s="11"/>
       <c r="C28" s="6" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="D28" s="6">
         <v>1</v>
@@ -4475,7 +5958,7 @@
     <row r="29" ht="17" spans="2:4">
       <c r="B29" s="11"/>
       <c r="C29" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D29" s="6">
         <v>1</v>
@@ -4484,7 +5967,7 @@
     <row r="30" ht="17" spans="2:4">
       <c r="B30" s="11"/>
       <c r="C30" s="6" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
       <c r="D30" s="6">
         <v>1</v>
@@ -4493,7 +5976,7 @@
     <row r="31" ht="17" spans="2:4">
       <c r="B31" s="11"/>
       <c r="C31" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D31" s="6">
         <v>1</v>
@@ -4502,7 +5985,7 @@
     <row r="32" ht="17" spans="2:4">
       <c r="B32" s="11"/>
       <c r="C32" s="6" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
       <c r="D32" s="6">
         <v>1</v>
@@ -4511,7 +5994,7 @@
     <row r="33" ht="17" spans="2:4">
       <c r="B33" s="11"/>
       <c r="C33" s="6" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="D33" s="6">
         <v>1</v>
@@ -4520,7 +6003,7 @@
     <row r="34" ht="17" spans="2:4">
       <c r="B34" s="11"/>
       <c r="C34" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D34" s="6">
         <v>1</v>
@@ -4556,7 +6039,7 @@
     <row r="38" ht="17" spans="2:4">
       <c r="B38" s="11"/>
       <c r="C38" s="6" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="D38" s="6">
         <v>1</v>
@@ -4574,7 +6057,7 @@
     <row r="40" ht="17" spans="2:4">
       <c r="B40" s="11"/>
       <c r="C40" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D40" s="6">
         <v>1</v>
@@ -4583,7 +6066,7 @@
     <row r="41" ht="17" spans="2:4">
       <c r="B41" s="11"/>
       <c r="C41" s="6" t="s">
-        <v>377</v>
+        <v>365</v>
       </c>
       <c r="D41" s="6">
         <v>1</v>
@@ -4592,7 +6075,7 @@
     <row r="42" ht="17" spans="2:4">
       <c r="B42" s="11"/>
       <c r="C42" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D42" s="6">
         <v>1</v>
@@ -4601,7 +6084,7 @@
     <row r="43" ht="17" spans="2:4">
       <c r="B43" s="11"/>
       <c r="C43" s="6" t="s">
-        <v>378</v>
+        <v>366</v>
       </c>
       <c r="D43" s="6">
         <v>1</v>
@@ -4610,7 +6093,7 @@
     <row r="44" ht="17" spans="2:4">
       <c r="B44" s="11"/>
       <c r="C44" s="6" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="D44" s="6">
         <v>1</v>
@@ -4619,7 +6102,7 @@
     <row r="45" ht="17" spans="2:4">
       <c r="B45" s="11"/>
       <c r="C45" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D45" s="6">
         <v>1</v>
@@ -4637,7 +6120,7 @@
     <row r="47" ht="17" spans="2:4">
       <c r="B47" s="11"/>
       <c r="C47" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D47" s="6">
         <v>1</v>
@@ -4646,7 +6129,7 @@
     <row r="48" ht="17" spans="2:4">
       <c r="B48" s="11"/>
       <c r="C48" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D48" s="6">
         <v>1</v>
@@ -4655,7 +6138,7 @@
     <row r="49" ht="17" spans="2:4">
       <c r="B49" s="11"/>
       <c r="C49" s="6" t="s">
-        <v>379</v>
+        <v>367</v>
       </c>
       <c r="D49" s="6">
         <v>1</v>
@@ -4664,7 +6147,7 @@
     <row r="50" ht="17" spans="2:4">
       <c r="B50" s="11"/>
       <c r="C50" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D50" s="6">
         <v>1</v>
@@ -4673,7 +6156,7 @@
     <row r="51" ht="17" spans="2:4">
       <c r="B51" s="11"/>
       <c r="C51" s="6" t="s">
-        <v>380</v>
+        <v>368</v>
       </c>
       <c r="D51" s="6">
         <v>1</v>
@@ -4682,7 +6165,7 @@
     <row r="52" ht="17" spans="2:4">
       <c r="B52" s="11"/>
       <c r="C52" s="6" t="s">
-        <v>381</v>
+        <v>369</v>
       </c>
       <c r="D52" s="6">
         <v>1</v>
@@ -4691,7 +6174,7 @@
     <row r="53" ht="17" spans="2:4">
       <c r="B53" s="11"/>
       <c r="C53" s="6" t="s">
-        <v>382</v>
+        <v>370</v>
       </c>
       <c r="D53" s="6">
         <v>1</v>
@@ -4700,7 +6183,7 @@
     <row r="54" ht="17" spans="2:4">
       <c r="B54" s="11"/>
       <c r="C54" s="6" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="D54" s="6">
         <v>1</v>
@@ -4709,7 +6192,7 @@
     <row r="55" ht="17" spans="2:4">
       <c r="B55" s="11"/>
       <c r="C55" s="6" t="s">
-        <v>384</v>
+        <v>372</v>
       </c>
       <c r="D55" s="6">
         <v>1</v>
@@ -4718,7 +6201,7 @@
     <row r="56" ht="17" spans="2:4">
       <c r="B56" s="11"/>
       <c r="C56" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D56" s="6">
         <v>1</v>
@@ -4727,7 +6210,7 @@
     <row r="57" ht="17" spans="2:4">
       <c r="B57" s="11"/>
       <c r="C57" s="6" t="s">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="D57" s="6">
         <v>1</v>
@@ -4745,7 +6228,7 @@
     <row r="59" ht="17" spans="2:4">
       <c r="B59" s="11"/>
       <c r="C59" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D59" s="6">
         <v>1</v>
@@ -4763,7 +6246,7 @@
     <row r="61" ht="17" spans="2:4">
       <c r="B61" s="11"/>
       <c r="C61" s="6" t="s">
-        <v>386</v>
+        <v>374</v>
       </c>
       <c r="D61" s="6">
         <v>1</v>
@@ -4772,7 +6255,7 @@
     <row r="62" ht="17" spans="2:4">
       <c r="B62" s="11"/>
       <c r="C62" s="6" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="D62" s="6">
         <v>1</v>
@@ -4853,22 +6336,22 @@
     </row>
     <row r="2" ht="17.6" spans="1:5">
       <c r="A2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>57</v>
+        <v>168</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="3" t="s">
-        <v>388</v>
+        <v>376</v>
       </c>
     </row>
     <row r="3" ht="17.6" spans="1:5">
       <c r="C3" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D3" s="5"/>
     </row>
@@ -4892,13 +6375,13 @@
     </row>
     <row r="7" ht="17.6" spans="1:5">
       <c r="C7" s="4" t="s">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="D7" s="5"/>
     </row>
     <row r="8" ht="17.6" spans="1:5">
       <c r="C8" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D8" s="5"/>
     </row>
@@ -4910,73 +6393,73 @@
     </row>
     <row r="10" ht="17.6" spans="1:5">
       <c r="C10" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D10" s="5"/>
     </row>
     <row r="11" ht="17.6" spans="1:5">
       <c r="C11" s="4" t="s">
-        <v>390</v>
+        <v>378</v>
       </c>
       <c r="D11" s="5"/>
     </row>
     <row r="12" ht="17.6" spans="1:5">
       <c r="C12" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D12" s="5"/>
     </row>
     <row r="13" ht="17.6" spans="1:5">
       <c r="C13" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D13" s="5"/>
     </row>
     <row r="14" ht="17.6" spans="1:5">
       <c r="C14" s="4" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
       <c r="D14" s="5"/>
     </row>
     <row r="15" ht="17.6" spans="1:5">
       <c r="C15" s="4" t="s">
-        <v>392</v>
+        <v>380</v>
       </c>
       <c r="D15" s="5"/>
     </row>
     <row r="16" ht="17.6" spans="1:5">
       <c r="C16" s="4" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="D16" s="5"/>
     </row>
     <row r="17" ht="17.6" spans="3:4">
       <c r="C17" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D17" s="5"/>
     </row>
     <row r="18" ht="17.6" spans="3:4">
       <c r="C18" s="4" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="D18" s="5"/>
     </row>
     <row r="19" ht="17.6" spans="3:4">
       <c r="C19" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D19" s="5"/>
     </row>
     <row r="20" ht="17.6" spans="3:4">
       <c r="C20" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D20" s="5"/>
     </row>
     <row r="21" ht="17.6" spans="3:4">
       <c r="C21" s="4" t="s">
-        <v>393</v>
+        <v>381</v>
       </c>
       <c r="D21" s="5"/>
     </row>
@@ -5031,19 +6514,19 @@
         <v>2023</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>394</v>
+        <v>382</v>
       </c>
       <c r="D2" s="6">
         <v>1</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
     </row>
     <row r="3" ht="17" spans="1:5">
       <c r="B3" s="7"/>
       <c r="C3" s="6" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="D3" s="6">
         <v>1</v>
@@ -5052,7 +6535,7 @@
     <row r="4" ht="17" spans="1:5">
       <c r="B4" s="7"/>
       <c r="C4" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D4" s="6">
         <v>1</v>
@@ -5061,7 +6544,7 @@
     <row r="5" ht="17" spans="1:5">
       <c r="B5" s="7"/>
       <c r="C5" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D5" s="6">
         <v>1</v>
@@ -5070,7 +6553,7 @@
     <row r="6" ht="17" spans="1:5">
       <c r="B6" s="7"/>
       <c r="C6" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D6" s="6">
         <v>1</v>
@@ -5106,7 +6589,7 @@
     <row r="10" ht="17" spans="1:5">
       <c r="B10" s="7"/>
       <c r="C10" s="6" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
       <c r="D10" s="6">
         <v>1</v>
@@ -5142,7 +6625,7 @@
     <row r="14" ht="17" spans="1:5">
       <c r="B14" s="7"/>
       <c r="C14" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D14" s="6">
         <v>8</v>
@@ -5151,7 +6634,7 @@
     <row r="15" ht="17" spans="1:5">
       <c r="B15" s="7"/>
       <c r="C15" s="6" t="s">
-        <v>397</v>
+        <v>385</v>
       </c>
       <c r="D15" s="6">
         <v>1</v>
@@ -5160,7 +6643,7 @@
     <row r="16" ht="17" spans="1:5">
       <c r="B16" s="7"/>
       <c r="C16" s="6" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="D16" s="6">
         <v>1</v>
@@ -5169,7 +6652,7 @@
     <row r="17" ht="17" spans="2:4">
       <c r="B17" s="7"/>
       <c r="C17" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D17" s="6">
         <v>1</v>
@@ -5178,7 +6661,7 @@
     <row r="18" ht="17" spans="2:4">
       <c r="B18" s="7"/>
       <c r="C18" s="6" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="D18" s="6">
         <v>2</v>
@@ -5187,7 +6670,7 @@
     <row r="19" ht="17" spans="2:4">
       <c r="B19" s="7"/>
       <c r="C19" s="6" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="D19" s="6">
         <v>1</v>
@@ -5205,7 +6688,7 @@
     <row r="21" ht="34" spans="2:4">
       <c r="B21" s="7"/>
       <c r="C21" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D21" s="6">
         <v>1</v>
@@ -5214,7 +6697,7 @@
     <row r="22" ht="17" spans="2:4">
       <c r="B22" s="7"/>
       <c r="C22" s="6" t="s">
-        <v>252</v>
+        <v>19</v>
       </c>
       <c r="D22" s="6">
         <v>1</v>
@@ -5232,7 +6715,7 @@
     <row r="24" ht="17" spans="2:4">
       <c r="B24" s="7"/>
       <c r="C24" s="6" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
       <c r="D24" s="6">
         <v>1</v>
@@ -5241,7 +6724,7 @@
     <row r="25" ht="17" spans="2:4">
       <c r="B25" s="7"/>
       <c r="C25" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D25" s="6">
         <v>1</v>
@@ -5250,7 +6733,7 @@
     <row r="26" ht="17" spans="2:4">
       <c r="B26" s="7"/>
       <c r="C26" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D26" s="6">
         <v>1</v>
@@ -5270,7 +6753,7 @@
         <v>2024</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="D28" s="6">
         <v>1</v>
@@ -5279,7 +6762,7 @@
     <row r="29" ht="15.2" spans="2:4">
       <c r="B29" s="7"/>
       <c r="C29" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="D29">
         <v>1</v>
@@ -5288,7 +6771,7 @@
     <row r="30" ht="15.2" spans="2:4">
       <c r="B30" s="7"/>
       <c r="C30" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="D30">
         <v>1</v>
@@ -5297,7 +6780,7 @@
     <row r="31" ht="15.2" spans="2:4">
       <c r="B31" s="7"/>
       <c r="C31" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D31">
         <v>8</v>
@@ -5306,7 +6789,7 @@
     <row r="32" ht="15.2" spans="2:4">
       <c r="B32" s="7"/>
       <c r="C32" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D32">
         <v>3</v>
@@ -5315,7 +6798,7 @@
     <row r="33" ht="15.2" spans="2:5">
       <c r="B33" s="7"/>
       <c r="C33" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D33">
         <v>1</v>
@@ -5324,7 +6807,7 @@
     <row r="34" ht="15.2" spans="2:5">
       <c r="B34" s="7"/>
       <c r="C34" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D34">
         <v>9</v>
@@ -5333,7 +6816,7 @@
     <row r="35" ht="15.2" spans="2:5">
       <c r="B35" s="7"/>
       <c r="C35" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D35">
         <v>6</v>
@@ -5342,7 +6825,7 @@
     <row r="36" ht="15.2" spans="2:5">
       <c r="B36" s="7"/>
       <c r="C36" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D36">
         <v>11</v>
@@ -5351,7 +6834,7 @@
     <row r="37" ht="15.2" spans="2:5">
       <c r="B37" s="7"/>
       <c r="C37" t="s">
-        <v>400</v>
+        <v>388</v>
       </c>
       <c r="D37">
         <v>5</v>
@@ -5360,7 +6843,7 @@
     <row r="38" ht="15.2" spans="2:5">
       <c r="B38" s="7"/>
       <c r="C38" t="s">
-        <v>317</v>
+        <v>305</v>
       </c>
       <c r="D38">
         <v>1</v>
@@ -5369,7 +6852,7 @@
     <row r="39" ht="15.2" spans="2:5">
       <c r="B39" s="7"/>
       <c r="C39" t="s">
-        <v>401</v>
+        <v>389</v>
       </c>
       <c r="D39">
         <v>3</v>
@@ -5378,7 +6861,7 @@
     <row r="40" ht="16" spans="2:5">
       <c r="B40" s="7"/>
       <c r="C40" s="8" t="s">
-        <v>402</v>
+        <v>390</v>
       </c>
       <c r="D40">
         <v>2</v>
@@ -5387,7 +6870,7 @@
     <row r="41" ht="15.2" spans="2:5">
       <c r="B41" s="7"/>
       <c r="C41" t="s">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="D41">
         <v>1</v>
@@ -5396,7 +6879,7 @@
     <row r="42" ht="15.2" spans="2:5">
       <c r="B42" s="7"/>
       <c r="C42" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="D42">
         <v>2</v>
@@ -5405,7 +6888,7 @@
     <row r="43" ht="15.2" spans="2:5">
       <c r="B43" s="7"/>
       <c r="C43" t="s">
-        <v>309</v>
+        <v>297</v>
       </c>
       <c r="D43">
         <v>1</v>
@@ -5414,7 +6897,7 @@
     <row r="44" ht="15.2" spans="2:5">
       <c r="B44" s="7"/>
       <c r="C44" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="D44">
         <v>1</v>
@@ -5423,7 +6906,7 @@
     <row r="45" ht="16" spans="2:5">
       <c r="B45" s="7"/>
       <c r="C45" s="8" t="s">
-        <v>406</v>
+        <v>394</v>
       </c>
       <c r="D45">
         <v>2</v>
@@ -5432,7 +6915,7 @@
     <row r="46" ht="15.2" spans="2:5">
       <c r="B46" s="7"/>
       <c r="C46" t="s">
-        <v>407</v>
+        <v>395</v>
       </c>
       <c r="D46">
         <v>1</v>
@@ -5441,7 +6924,7 @@
     <row r="47" ht="15.2" spans="2:5">
       <c r="B47" s="7"/>
       <c r="C47" t="s">
-        <v>408</v>
+        <v>396</v>
       </c>
       <c r="D47">
         <v>1</v>
@@ -5451,7 +6934,7 @@
     <row r="48" ht="15.2" spans="2:5">
       <c r="B48" s="7"/>
       <c r="C48" t="s">
-        <v>409</v>
+        <v>397</v>
       </c>
       <c r="D48">
         <v>1</v>
@@ -5460,7 +6943,7 @@
     <row r="49" ht="15.2" spans="2:4">
       <c r="B49" s="7"/>
       <c r="C49" t="s">
-        <v>410</v>
+        <v>398</v>
       </c>
       <c r="D49">
         <v>1</v>
@@ -5469,7 +6952,7 @@
     <row r="50" ht="15.2" spans="2:4">
       <c r="B50" s="7"/>
       <c r="C50" t="s">
-        <v>411</v>
+        <v>399</v>
       </c>
       <c r="D50">
         <v>1</v>
@@ -5480,7 +6963,7 @@
         <v>2025</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D51" s="6">
         <v>5</v>
@@ -5489,7 +6972,7 @@
     <row r="52" ht="17" spans="2:4">
       <c r="B52" s="9"/>
       <c r="C52" s="6" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="D52" s="6">
         <v>1</v>
@@ -5516,7 +6999,7 @@
     <row r="55" ht="17" spans="2:4">
       <c r="B55" s="9"/>
       <c r="C55" s="6" t="s">
-        <v>412</v>
+        <v>400</v>
       </c>
       <c r="D55" s="6">
         <v>5</v>
@@ -5534,7 +7017,7 @@
     <row r="57" ht="17" spans="2:4">
       <c r="B57" s="9"/>
       <c r="C57" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D57" s="6">
         <v>15</v>
@@ -5543,7 +7026,7 @@
     <row r="58" ht="17" spans="2:4">
       <c r="B58" s="9"/>
       <c r="C58" s="6" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="D58" s="6">
         <v>1</v>
@@ -5552,7 +7035,7 @@
     <row r="59" ht="17" spans="2:4">
       <c r="B59" s="9"/>
       <c r="C59" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D59" s="6">
         <v>1</v>
@@ -5561,7 +7044,7 @@
     <row r="60" ht="17" spans="2:4">
       <c r="B60" s="9"/>
       <c r="C60" s="6" t="s">
-        <v>413</v>
+        <v>401</v>
       </c>
       <c r="D60" s="6">
         <v>1</v>
@@ -5570,7 +7053,7 @@
     <row r="61" ht="17" spans="2:4">
       <c r="B61" s="9"/>
       <c r="C61" s="6" t="s">
-        <v>414</v>
+        <v>402</v>
       </c>
       <c r="D61" s="6">
         <v>1</v>
@@ -5588,7 +7071,7 @@
     <row r="63" ht="17" spans="2:4">
       <c r="B63" s="9"/>
       <c r="C63" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D63" s="6">
         <v>2</v>
@@ -5597,7 +7080,7 @@
     <row r="64" ht="17" spans="2:4">
       <c r="B64" s="9"/>
       <c r="C64" s="6" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="D64" s="6">
         <v>2</v>
@@ -5624,7 +7107,7 @@
     <row r="67" ht="17" spans="2:4">
       <c r="B67" s="9"/>
       <c r="C67" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D67" s="6">
         <v>1</v>
@@ -5633,7 +7116,7 @@
     <row r="68" ht="17" spans="2:4">
       <c r="B68" s="9"/>
       <c r="C68" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D68" s="6">
         <v>1</v>
@@ -5695,17 +7178,17 @@
     </row>
     <row r="2" ht="17.6" spans="1:5">
       <c r="A2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B2" t="s">
-        <v>57</v>
+        <v>168</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>415</v>
+        <v>403</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" t="s">
-        <v>416</v>
+        <v>404</v>
       </c>
     </row>
     <row r="3" ht="17.6" spans="1:5">
@@ -5728,7 +7211,7 @@
     </row>
     <row r="6" ht="17.6" spans="1:5">
       <c r="C6" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D6" s="5"/>
     </row>
@@ -5746,61 +7229,61 @@
     </row>
     <row r="9" ht="17.6" spans="1:5">
       <c r="C9" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D9" s="5"/>
     </row>
     <row r="10" ht="17.6" spans="1:5">
       <c r="C10" s="4" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="D10" s="5"/>
     </row>
     <row r="11" ht="17.6" spans="1:5">
       <c r="C11" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D11" s="5"/>
     </row>
     <row r="12" ht="17.6" spans="1:5">
       <c r="C12" s="4" t="s">
-        <v>397</v>
+        <v>385</v>
       </c>
       <c r="D12" s="5"/>
     </row>
     <row r="13" ht="17.6" spans="1:5">
       <c r="C13" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D13" s="5"/>
     </row>
     <row r="14" ht="17.6" spans="1:5">
       <c r="C14" s="4" t="s">
-        <v>417</v>
+        <v>405</v>
       </c>
       <c r="D14" s="5"/>
     </row>
     <row r="15" ht="17.6" spans="1:5">
       <c r="C15" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D15" s="5"/>
     </row>
     <row r="16" ht="17.6" spans="1:5">
       <c r="C16" s="4" t="s">
-        <v>418</v>
+        <v>406</v>
       </c>
       <c r="D16" s="5"/>
     </row>
     <row r="17" ht="17.6" spans="3:4">
       <c r="C17" s="4" t="s">
-        <v>419</v>
+        <v>407</v>
       </c>
       <c r="D17" s="5"/>
     </row>
     <row r="18" ht="17.6" spans="3:4">
       <c r="C18" s="4" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="D18" s="5"/>
     </row>
@@ -5812,7 +7295,7 @@
     </row>
     <row r="20" ht="17.6" spans="3:4">
       <c r="C20" s="4" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="D20" s="5"/>
     </row>
@@ -5874,26 +7357,26 @@
     </row>
     <row r="2" ht="16" spans="1:5">
       <c r="A2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B2" s="2">
         <v>2023</v>
       </c>
       <c r="C2" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>421</v>
+        <v>409</v>
       </c>
     </row>
     <row r="3" ht="15.2" spans="1:5">
       <c r="C3" t="s">
-        <v>422</v>
+        <v>410</v>
       </c>
     </row>
     <row r="4" ht="15.2" spans="1:5">
       <c r="C4" t="s">
-        <v>423</v>
+        <v>411</v>
       </c>
     </row>
     <row r="5" ht="15.2" spans="1:5">
@@ -5903,42 +7386,42 @@
     </row>
     <row r="6" ht="15.2" spans="1:5">
       <c r="C6" t="s">
-        <v>424</v>
+        <v>412</v>
       </c>
     </row>
     <row r="7" ht="15.2" spans="1:5">
       <c r="C7" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
     </row>
     <row r="8" ht="15.2" spans="1:5">
       <c r="C8" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
     </row>
     <row r="9" ht="15.2" spans="1:5">
       <c r="C9" t="s">
-        <v>427</v>
+        <v>415</v>
       </c>
     </row>
     <row r="10" ht="15.2" spans="1:5">
       <c r="C10" t="s">
-        <v>428</v>
+        <v>416</v>
       </c>
     </row>
     <row r="11" ht="15.2" spans="1:5">
       <c r="C11" t="s">
-        <v>379</v>
+        <v>367</v>
       </c>
     </row>
     <row r="12" ht="15.2" spans="1:5">
       <c r="C12" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
     </row>
     <row r="13" ht="15.2" spans="1:5">
       <c r="C13" t="s">
-        <v>390</v>
+        <v>378</v>
       </c>
     </row>
     <row r="14" ht="15.2" spans="1:5">
@@ -5948,22 +7431,22 @@
     </row>
     <row r="15" ht="15.2" spans="1:5">
       <c r="C15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16" ht="15.2" spans="1:5">
       <c r="C16" t="s">
-        <v>430</v>
+        <v>418</v>
       </c>
     </row>
     <row r="17" ht="15.2" spans="2:3">
       <c r="C17" t="s">
-        <v>431</v>
+        <v>419</v>
       </c>
     </row>
     <row r="18" ht="15.2" spans="2:3">
       <c r="C18" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="19" ht="15.2" spans="2:3">
@@ -5976,17 +7459,17 @@
         <v>2024</v>
       </c>
       <c r="C20" t="s">
-        <v>432</v>
+        <v>420</v>
       </c>
     </row>
     <row r="21" ht="15.2" spans="2:3">
       <c r="C21" t="s">
-        <v>422</v>
+        <v>410</v>
       </c>
     </row>
     <row r="22" ht="15.2" spans="2:3">
       <c r="C22" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
     </row>
     <row r="23" ht="15.2" spans="2:3">
@@ -5996,42 +7479,42 @@
     </row>
     <row r="24" ht="15.2" spans="2:3">
       <c r="C24" t="s">
-        <v>433</v>
+        <v>421</v>
       </c>
     </row>
     <row r="25" ht="15.2" spans="2:3">
       <c r="C25" t="s">
-        <v>428</v>
+        <v>416</v>
       </c>
     </row>
     <row r="26" ht="15.2" spans="2:3">
       <c r="C26" t="s">
-        <v>434</v>
+        <v>422</v>
       </c>
     </row>
     <row r="27" ht="15.2" spans="2:3">
       <c r="C27" t="s">
-        <v>379</v>
+        <v>367</v>
       </c>
     </row>
     <row r="28" ht="15.2" spans="2:3">
       <c r="C28" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="29" ht="15.2" spans="2:3">
       <c r="C29" t="s">
-        <v>431</v>
+        <v>419</v>
       </c>
     </row>
     <row r="30" ht="15.2" spans="2:3">
       <c r="C30" t="s">
-        <v>430</v>
+        <v>418</v>
       </c>
     </row>
     <row r="31" ht="15.2" spans="2:3">
       <c r="C31" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="32" ht="15.2" spans="2:3">
@@ -6039,12 +7522,12 @@
         <v>2025</v>
       </c>
       <c r="C32" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="33" ht="15.2" spans="3:3">
       <c r="C33" t="s">
-        <v>435</v>
+        <v>423</v>
       </c>
     </row>
     <row r="34" ht="15.2" spans="3:3">
@@ -6059,37 +7542,37 @@
     </row>
     <row r="36" ht="15.2" spans="3:3">
       <c r="C36" t="s">
-        <v>427</v>
+        <v>415</v>
       </c>
     </row>
     <row r="37" ht="15.2" spans="3:3">
       <c r="C37" t="s">
-        <v>428</v>
+        <v>416</v>
       </c>
     </row>
     <row r="38" ht="15.2" spans="3:3">
       <c r="C38" t="s">
-        <v>436</v>
+        <v>424</v>
       </c>
     </row>
     <row r="39" ht="15.2" spans="3:3">
       <c r="C39" t="s">
-        <v>434</v>
+        <v>422</v>
       </c>
     </row>
     <row r="40" ht="15.2" spans="3:3">
       <c r="C40" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="41" ht="15.2" spans="3:3">
       <c r="C41" t="s">
-        <v>379</v>
+        <v>367</v>
       </c>
     </row>
     <row r="42" ht="15.2" spans="3:3">
       <c r="C42" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
     </row>
     <row r="43" ht="15.2" spans="3:3">
@@ -6099,12 +7582,12 @@
     </row>
     <row r="44" ht="15.2" spans="3:3">
       <c r="C44" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="45" ht="15.2" spans="3:3">
       <c r="C45" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="46" ht="15.2" spans="3:3">
@@ -6131,8 +7614,8 @@
   <sheetPr codeName="大角嘴天主教小学（海帆道）"/>
   <dimension ref="A1:F59"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="18" customHeight="1" outlineLevelCol="5"/>
@@ -6168,480 +7651,538 @@
       <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="29">
+        <v>2025</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="30">
+        <v>2</v>
+      </c>
+      <c r="E2" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="D2" s="26">
-        <v>2</v>
-      </c>
-      <c r="E2" s="27" t="s">
+      <c r="F2" s="31">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="3" ht="18.75" customHeight="1" spans="1:6">
+      <c r="B3" s="29"/>
+      <c r="C3" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="F2" s="27">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="3" ht="18.75" customHeight="1" spans="1:6">
-      <c r="C3" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="D3" s="26">
+      <c r="D3" s="30">
         <v>1</v>
       </c>
     </row>
     <row r="4" ht="18.75" customHeight="1" spans="1:6">
+      <c r="B4" s="29"/>
       <c r="C4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="26">
+      <c r="D4" s="30">
         <v>1</v>
       </c>
     </row>
     <row r="5" ht="18.75" customHeight="1" spans="1:6">
+      <c r="B5" s="29"/>
       <c r="C5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="26">
+      <c r="D5" s="30">
         <v>9</v>
       </c>
     </row>
     <row r="6" ht="18.75" customHeight="1" spans="1:6">
+      <c r="B6" s="29"/>
       <c r="C6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="26">
+      <c r="D6" s="30">
         <v>8</v>
       </c>
     </row>
     <row r="7" ht="18.75" customHeight="1" spans="1:6">
+      <c r="B7" s="29"/>
       <c r="C7" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D7" s="26">
+        <v>60</v>
+      </c>
+      <c r="D7" s="30">
         <v>2</v>
       </c>
     </row>
     <row r="8" ht="18.75" customHeight="1" spans="1:6">
+      <c r="B8" s="29"/>
       <c r="C8" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="26">
+      <c r="D8" s="30">
         <v>1</v>
       </c>
     </row>
     <row r="9" ht="18.75" customHeight="1" spans="1:6">
+      <c r="B9" s="29"/>
       <c r="C9" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" ht="18.75" customHeight="1" spans="1:6">
+      <c r="B10" s="29"/>
+      <c r="C10" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="D9" s="26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" ht="18.75" customHeight="1" spans="1:6">
-      <c r="C10" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="D10" s="26">
+      <c r="D10" s="30">
         <v>1</v>
       </c>
     </row>
     <row r="11" ht="18.75" customHeight="1" spans="1:6">
+      <c r="B11" s="29"/>
       <c r="C11" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="26">
+      <c r="D11" s="30">
         <v>2</v>
       </c>
     </row>
     <row r="12" ht="18.75" customHeight="1" spans="1:6">
+      <c r="B12" s="29"/>
       <c r="C12" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="D12" s="26">
+        <v>63</v>
+      </c>
+      <c r="D12" s="30">
         <v>1</v>
       </c>
     </row>
     <row r="13" ht="18.75" customHeight="1" spans="1:6">
+      <c r="B13" s="29"/>
       <c r="C13" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="26">
+      <c r="D13" s="30">
         <v>10</v>
       </c>
     </row>
     <row r="14" ht="18.75" customHeight="1" spans="1:6">
+      <c r="B14" s="29"/>
       <c r="C14" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="26">
+      <c r="D14" s="30">
         <v>8</v>
       </c>
     </row>
     <row r="15" ht="18.75" customHeight="1" spans="1:6">
+      <c r="B15" s="29"/>
       <c r="C15" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D15" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" ht="18.75" customHeight="1" spans="1:6">
+      <c r="B16" s="29"/>
+      <c r="C16" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="D15" s="26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" ht="18.75" customHeight="1" spans="1:6">
-      <c r="C16" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="D16" s="26">
+      <c r="D16" s="30">
         <v>10</v>
       </c>
     </row>
-    <row r="17" ht="18.75" customHeight="1" spans="3:4">
+    <row r="17" ht="18.75" customHeight="1" spans="2:4">
+      <c r="B17" s="29"/>
       <c r="C17" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="26">
+      <c r="D17" s="30">
         <v>2</v>
       </c>
     </row>
-    <row r="18" ht="18.75" customHeight="1" spans="3:4">
+    <row r="18" ht="18.75" customHeight="1" spans="2:4">
+      <c r="B18" s="29"/>
       <c r="C18" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="26">
+      <c r="D18" s="30">
         <v>3</v>
       </c>
     </row>
-    <row r="19" ht="18.75" customHeight="1" spans="3:4">
+    <row r="19" ht="18.75" customHeight="1" spans="2:4">
+      <c r="B19" s="29"/>
       <c r="C19" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D19" s="26">
+      <c r="D19" s="30">
         <v>3</v>
       </c>
     </row>
-    <row r="20" ht="30" customHeight="1" spans="3:4">
+    <row r="20" ht="30" customHeight="1" spans="2:4">
+      <c r="B20" s="29"/>
       <c r="C20" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D20" s="26">
+      <c r="D20" s="30">
         <v>4</v>
       </c>
     </row>
-    <row r="21" ht="30" customHeight="1" spans="3:4">
+    <row r="21" ht="30" customHeight="1" spans="2:4">
+      <c r="B21" s="29"/>
       <c r="C21" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D21" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" ht="30" customHeight="1" spans="2:4">
+      <c r="B22" s="29"/>
+      <c r="C22" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="D21" s="26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" ht="30" customHeight="1" spans="3:4">
-      <c r="C22" s="6" t="s">
+      <c r="D22" s="30">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" ht="18.75" customHeight="1" spans="2:4">
+      <c r="B23" s="29"/>
+      <c r="C23" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="D22" s="26">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" ht="18.75" customHeight="1" spans="3:4">
-      <c r="C23" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="D23" s="26">
+      <c r="D23" s="30">
         <v>4</v>
       </c>
     </row>
-    <row r="24" ht="18.75" customHeight="1" spans="3:4">
+    <row r="24" ht="18.75" customHeight="1" spans="2:4">
+      <c r="B24" s="29"/>
       <c r="C24" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="D24" s="26">
+      <c r="D24" s="30">
         <v>5</v>
       </c>
     </row>
-    <row r="25" ht="18.75" customHeight="1" spans="3:4">
+    <row r="25" ht="18.75" customHeight="1" spans="2:4">
+      <c r="B25" s="29"/>
       <c r="C25" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D25" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" ht="18.75" customHeight="1" spans="2:4">
+      <c r="B26" s="29"/>
+      <c r="C26" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="D25" s="26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" ht="18.75" customHeight="1" spans="3:4">
-      <c r="C26" s="6" t="s">
+      <c r="D26" s="30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" ht="18.75" customHeight="1" spans="2:4">
+      <c r="B27" s="29"/>
+      <c r="C27" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D26" s="26">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" ht="18.75" customHeight="1" spans="3:4">
-      <c r="C27" s="6" t="s">
+      <c r="D27" s="30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" ht="18.75" customHeight="1" spans="2:4">
+      <c r="B28" s="29"/>
+      <c r="C28" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="D27" s="26">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" ht="18.75" customHeight="1" spans="3:4">
-      <c r="C28" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="D28" s="26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" ht="18.75" customHeight="1" spans="3:4">
+      <c r="D28" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" ht="18.75" customHeight="1" spans="2:4">
+      <c r="B29" s="29"/>
       <c r="C29" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D29" s="26">
+      <c r="D29" s="30">
         <v>2</v>
       </c>
     </row>
-    <row r="30" ht="18.75" customHeight="1" spans="3:4">
+    <row r="30" ht="18.75" customHeight="1" spans="2:4">
+      <c r="B30" s="29"/>
       <c r="C30" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D30" s="26">
+      <c r="D30" s="30">
         <v>2</v>
       </c>
     </row>
-    <row r="31" ht="30" customHeight="1" spans="3:4">
+    <row r="31" ht="30" customHeight="1" spans="2:4">
+      <c r="B31" s="29"/>
       <c r="C31" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="D31" s="26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" ht="18.75" customHeight="1" spans="3:4">
+        <v>73</v>
+      </c>
+      <c r="D31" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" ht="18.75" customHeight="1" spans="2:4">
+      <c r="B32" s="29"/>
       <c r="C32" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="D32" s="26">
+      <c r="D32" s="30">
         <v>3</v>
       </c>
     </row>
-    <row r="33" ht="30" customHeight="1" spans="3:4">
+    <row r="33" ht="30" customHeight="1" spans="2:4">
+      <c r="B33" s="29"/>
       <c r="C33" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D33" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" ht="18.75" customHeight="1" spans="2:4">
+      <c r="B34" s="29"/>
+      <c r="C34" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="D33" s="26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" ht="18.75" customHeight="1" spans="3:4">
-      <c r="C34" s="6" t="s">
+      <c r="D34" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" ht="18.75" customHeight="1" spans="2:4">
+      <c r="B35" s="29"/>
+      <c r="C35" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="D34" s="26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" ht="18.75" customHeight="1" spans="3:4">
-      <c r="C35" s="6" t="s">
+      <c r="D35" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" ht="18.75" customHeight="1" spans="2:4">
+      <c r="B36" s="29"/>
+      <c r="C36" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="D35" s="26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" ht="18.75" customHeight="1" spans="3:4">
-      <c r="C36" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="D36" s="26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" ht="18.75" customHeight="1" spans="3:4">
+      <c r="D36" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" ht="18.75" customHeight="1" spans="2:4">
+      <c r="B37" s="29"/>
       <c r="C37" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D37" s="26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" ht="18.75" customHeight="1" spans="3:4">
+      <c r="D37" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" ht="18.75" customHeight="1" spans="2:4">
+      <c r="B38" s="29"/>
       <c r="C38" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D38" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" ht="18.75" customHeight="1" spans="2:4">
+      <c r="B39" s="29"/>
+      <c r="C39" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="D38" s="26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" ht="18.75" customHeight="1" spans="3:4">
-      <c r="C39" s="6" t="s">
+      <c r="D39" s="30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" ht="18.75" customHeight="1" spans="2:4">
+      <c r="B40" s="29"/>
+      <c r="C40" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="D39" s="26">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" ht="18.75" customHeight="1" spans="3:4">
-      <c r="C40" s="6" t="s">
+      <c r="D40" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" ht="18.75" customHeight="1" spans="2:4">
+      <c r="B41" s="29"/>
+      <c r="C41" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="D40" s="26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" ht="18.75" customHeight="1" spans="3:4">
-      <c r="C41" s="6" t="s">
+      <c r="D41" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" ht="18.75" customHeight="1" spans="2:4">
+      <c r="B42" s="29"/>
+      <c r="C42" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="D41" s="26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" ht="18.75" customHeight="1" spans="3:4">
-      <c r="C42" s="6" t="s">
+      <c r="D42" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" ht="30" customHeight="1" spans="2:4">
+      <c r="B43" s="29"/>
+      <c r="C43" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="D42" s="26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" ht="30" customHeight="1" spans="3:4">
-      <c r="C43" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="D43" s="26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" ht="18.75" customHeight="1" spans="3:4">
+      <c r="D43" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" ht="18.75" customHeight="1" spans="2:4">
+      <c r="B44" s="29"/>
       <c r="C44" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D44" s="26">
+      <c r="D44" s="30">
         <v>2</v>
       </c>
     </row>
-    <row r="45" ht="18.75" customHeight="1" spans="3:4">
+    <row r="45" ht="18.75" customHeight="1" spans="2:4">
+      <c r="B45" s="29"/>
       <c r="C45" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D45" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" ht="30" customHeight="1" spans="2:4">
+      <c r="B46" s="29"/>
+      <c r="C46" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="D45" s="26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" ht="30" customHeight="1" spans="3:4">
-      <c r="C46" s="6" t="s">
+      <c r="D46" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" ht="18.75" customHeight="1" spans="2:4">
+      <c r="B47" s="29"/>
+      <c r="C47" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="D46" s="26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" ht="18.75" customHeight="1" spans="3:4">
-      <c r="C47" s="6" t="s">
+      <c r="D47" s="30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" ht="18.75" customHeight="1" spans="2:4">
+      <c r="B48" s="29"/>
+      <c r="C48" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="D47" s="26">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48" ht="18.75" customHeight="1" spans="3:4">
-      <c r="C48" s="6" t="s">
+      <c r="D48" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" ht="18.75" customHeight="1" spans="2:4">
+      <c r="B49" s="29"/>
+      <c r="C49" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="D48" s="26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" ht="18.75" customHeight="1" spans="3:4">
-      <c r="C49" s="6" t="s">
+      <c r="D49" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" ht="18.75" customHeight="1" spans="2:4">
+      <c r="B50" s="29"/>
+      <c r="C50" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="D49" s="26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" ht="18.75" customHeight="1" spans="3:4">
-      <c r="C50" s="6" t="s">
+      <c r="D50" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" ht="18.75" customHeight="1" spans="2:4">
+      <c r="B51" s="29"/>
+      <c r="C51" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="D50" s="26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" ht="18.75" customHeight="1" spans="3:4">
-      <c r="C51" s="6" t="s">
+      <c r="D51" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" ht="18.75" customHeight="1" spans="2:4">
+      <c r="B52" s="29"/>
+      <c r="C52" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="D51" s="26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" ht="18.75" customHeight="1" spans="3:4">
-      <c r="C52" s="6" t="s">
+      <c r="D52" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" ht="30" customHeight="1" spans="2:4">
+      <c r="B53" s="29"/>
+      <c r="C53" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="D52" s="26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" ht="30" customHeight="1" spans="3:4">
-      <c r="C53" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="D53" s="26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" ht="18.75" customHeight="1" spans="3:4">
+      <c r="D53" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" ht="18.75" customHeight="1" spans="2:4">
+      <c r="B54" s="29"/>
       <c r="C54" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D54" s="26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" ht="18.75" customHeight="1" spans="3:4">
+      <c r="D54" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" ht="18.75" customHeight="1" spans="2:4">
+      <c r="B55" s="29"/>
       <c r="C55" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D55" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" ht="18.75" customHeight="1" spans="2:4">
+      <c r="B56" s="29"/>
+      <c r="C56" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="D55" s="26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" ht="18.75" customHeight="1" spans="3:4">
-      <c r="C56" s="6" t="s">
+      <c r="D56" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" ht="18.75" customHeight="1" spans="2:4">
+      <c r="B57" s="29"/>
+      <c r="C57" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="D56" s="26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" ht="18.75" customHeight="1" spans="3:4">
-      <c r="C57" s="6" t="s">
+      <c r="D57" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" ht="18.75" customHeight="1" spans="2:4">
+      <c r="B58" s="29"/>
+      <c r="C58" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="D57" s="26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" ht="18.75" customHeight="1" spans="3:4">
-      <c r="C58" s="6" t="s">
+      <c r="D58" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" ht="18.75" customHeight="1" spans="2:4">
+      <c r="B59" s="29"/>
+      <c r="C59" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="D58" s="26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" ht="18.75" customHeight="1" spans="3:4">
-      <c r="C59" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="D59" s="26">
+      <c r="D59" s="30">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
+    <mergeCell ref="B2:B59"/>
     <mergeCell ref="F2:F59"/>
   </mergeCells>
   <hyperlinks>
@@ -6686,146 +8227,146 @@
     </row>
     <row r="2" ht="16" spans="1:5">
       <c r="A2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2" t="s">
         <v>99</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" t="s">
         <v>100</v>
       </c>
-      <c r="C2" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="E2" t="s">
+    </row>
+    <row r="3" ht="16" spans="1:5">
+      <c r="C3" s="20" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" ht="16" spans="1:5">
+      <c r="C4" s="20" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="3" ht="16" spans="1:5">
-      <c r="C3" s="17" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="4" ht="16" spans="1:5">
-      <c r="C4" s="17" t="s">
+    <row r="5" ht="16" spans="1:5">
+      <c r="C5" s="20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" ht="31" spans="1:5">
+      <c r="C6" s="20" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="5" ht="16" spans="1:5">
-      <c r="C5" s="17" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" ht="31" spans="1:5">
-      <c r="C6" s="17" t="s">
+    <row r="7" ht="31" spans="1:5">
+      <c r="C7" s="20" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="7" ht="31" spans="1:5">
-      <c r="C7" s="17" t="s">
+    <row r="8" ht="31" spans="1:5">
+      <c r="C8" s="20" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="8" ht="31" spans="1:5">
-      <c r="C8" s="17" t="s">
+    <row r="9" ht="16" spans="1:5">
+      <c r="C9" s="20" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="9" ht="16" spans="1:5">
-      <c r="C9" s="17" t="s">
+    <row r="10" ht="16" spans="1:5">
+      <c r="C10" s="20" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" ht="16" spans="1:5">
+      <c r="C11" s="20" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" ht="16" spans="1:5">
+      <c r="C12" s="20" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="10" ht="16" spans="1:5">
-      <c r="C10" s="17" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="11" ht="16" spans="1:5">
-      <c r="C11" s="17" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" ht="16" spans="1:5">
-      <c r="C12" s="17" t="s">
+    <row r="13" ht="16" spans="1:5">
+      <c r="C13" s="20" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="13" ht="16" spans="1:5">
-      <c r="C13" s="17" t="s">
+    <row r="14" ht="16" spans="1:5">
+      <c r="C14" s="20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" ht="16" spans="1:5">
+      <c r="C15" s="20" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="14" ht="16" spans="1:5">
-      <c r="C14" s="17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" ht="16" spans="1:5">
-      <c r="C15" s="17" t="s">
+    <row r="16" ht="16" spans="1:5">
+      <c r="C16" s="20" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="16" ht="16" spans="1:5">
-      <c r="C16" s="17" t="s">
+    <row r="17" ht="16" spans="3:3">
+      <c r="C17" s="20" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="17" ht="16" spans="3:3">
-      <c r="C17" s="17" t="s">
+    <row r="18" ht="16" spans="3:3">
+      <c r="C18" s="20" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="18" ht="16" spans="3:3">
-      <c r="C18" s="17" t="s">
+    <row r="19" ht="16" spans="3:3">
+      <c r="C19" s="20" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="20" ht="16" spans="3:3">
+      <c r="C20" s="20" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="19" ht="16" spans="3:3">
-      <c r="C19" s="17" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="20" ht="16" spans="3:3">
-      <c r="C20" s="17" t="s">
+    <row r="21" ht="16" spans="3:3">
+      <c r="C21" s="20" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="21" ht="16" spans="3:3">
-      <c r="C21" s="17" t="s">
+    <row r="22" ht="16" spans="3:3">
+      <c r="C22" s="20" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" ht="16" spans="3:3">
+      <c r="C23" s="20" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="22" ht="16" spans="3:3">
-      <c r="C22" s="17" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" ht="16" spans="3:3">
-      <c r="C23" s="17" t="s">
+    <row r="24" ht="16" spans="3:3">
+      <c r="C24" s="20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" ht="16" spans="3:3">
+      <c r="C25" s="20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" ht="16" spans="3:3">
+      <c r="C26" s="20" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="24" ht="16" spans="3:3">
-      <c r="C24" s="17" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" ht="16" spans="3:3">
-      <c r="C25" s="17" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="26" ht="16" spans="3:3">
-      <c r="C26" s="17" t="s">
+    <row r="27" ht="16" spans="3:3">
+      <c r="C27" s="20" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="27" ht="16" spans="3:3">
-      <c r="C27" s="17" t="s">
-        <v>117</v>
-      </c>
-    </row>
     <row r="28" ht="16.75" spans="3:3">
-      <c r="C28" s="25" t="s">
-        <v>74</v>
+      <c r="C28" s="28" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -6873,83 +8414,83 @@
     </row>
     <row r="2" ht="16" spans="1:5">
       <c r="A2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C2" s="20" t="s">
         <v>118</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="D2" s="21"/>
+      <c r="E2" t="s">
         <v>119</v>
       </c>
-      <c r="D2" s="18"/>
-      <c r="E2" t="s">
+    </row>
+    <row r="3" ht="16" spans="1:5">
+      <c r="C3" s="20" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="3" ht="16" spans="1:5">
-      <c r="C3" s="17" t="s">
+      <c r="D3" s="22"/>
+    </row>
+    <row r="4" ht="16" spans="1:5">
+      <c r="C4" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="D3" s="19"/>
-    </row>
-    <row r="4" ht="16" spans="1:5">
-      <c r="C4" s="17" t="s">
+      <c r="D4" s="23"/>
+    </row>
+    <row r="5" ht="16" spans="1:5">
+      <c r="C5" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="D4" s="20"/>
-    </row>
-    <row r="5" ht="16" spans="1:5">
-      <c r="C5" s="17" t="s">
+      <c r="D5" s="22"/>
+    </row>
+    <row r="6" ht="16" spans="1:5">
+      <c r="C6" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="D5" s="19"/>
-    </row>
-    <row r="6" ht="16" spans="1:5">
-      <c r="C6" s="17" t="s">
+      <c r="D6" s="21"/>
+    </row>
+    <row r="7" ht="16" spans="1:5">
+      <c r="C7" s="20" t="s">
         <v>124</v>
       </c>
-      <c r="D6" s="18"/>
-    </row>
-    <row r="7" ht="16" spans="1:5">
-      <c r="C7" s="17" t="s">
+      <c r="D7" s="22"/>
+    </row>
+    <row r="8" ht="16" spans="1:5">
+      <c r="C8" s="20" t="s">
         <v>125</v>
       </c>
-      <c r="D7" s="19"/>
-    </row>
-    <row r="8" ht="16" spans="1:5">
-      <c r="C8" s="17" t="s">
+      <c r="D8" s="24"/>
+    </row>
+    <row r="9" ht="16" spans="1:5">
+      <c r="C9" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="D8" s="21"/>
-    </row>
-    <row r="9" ht="16" spans="1:5">
-      <c r="C9" s="17" t="s">
+    </row>
+    <row r="10" ht="31" spans="1:5">
+      <c r="C10" s="25" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="10" ht="31" spans="1:5">
-      <c r="C10" s="22" t="s">
+    <row r="11" ht="15.2" spans="1:5">
+      <c r="C11" s="26" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="11" ht="15.2" spans="1:5">
-      <c r="C11" s="23" t="s">
+    <row r="12" ht="16" spans="1:5">
+      <c r="C12" s="27" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="12" ht="16" spans="1:5">
-      <c r="C12" s="24" t="s">
+    <row r="13" ht="16" spans="1:5">
+      <c r="C13" s="27" t="s">
         <v>130</v>
-      </c>
-    </row>
-    <row r="13" ht="16" spans="1:5">
-      <c r="C13" s="24" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="14" ht="15.2" spans="1:5">
       <c r="C14" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -6995,21 +8536,21 @@
     </row>
     <row r="2" ht="17" spans="1:5">
       <c r="A2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2" t="s">
         <v>133</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="E2" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="3" ht="17" spans="1:5">
       <c r="C3" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="4" ht="17" spans="1:5">
@@ -7029,32 +8570,32 @@
     </row>
     <row r="7" ht="17" spans="1:5">
       <c r="C7" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" ht="30" customHeight="1" spans="1:5">
       <c r="C8" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="9" ht="17" spans="1:5">
       <c r="C9" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" ht="17" spans="1:5">
       <c r="C10" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="11" ht="17" spans="1:5">
       <c r="C11" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="12" ht="30" customHeight="1" spans="1:5">
       <c r="C12" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="13" ht="17" spans="1:5">
@@ -7064,7 +8605,7 @@
     </row>
     <row r="14" ht="17" spans="1:5">
       <c r="C14" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" ht="17" spans="1:5">
@@ -7074,7 +8615,7 @@
     </row>
     <row r="16" ht="17" spans="1:5">
       <c r="C16" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" ht="17" spans="3:3">
@@ -7084,7 +8625,7 @@
     </row>
     <row r="18" ht="30" customHeight="1" spans="3:3">
       <c r="C18" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="19" ht="17" spans="3:3">
@@ -7094,7 +8635,7 @@
     </row>
     <row r="20" ht="17" spans="3:3">
       <c r="C20" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" ht="30" customHeight="1" spans="3:3">
@@ -7104,12 +8645,12 @@
     </row>
     <row r="22" ht="17" spans="3:3">
       <c r="C22" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="23" ht="17" spans="3:3">
       <c r="C23" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="24" ht="17" spans="3:3">
@@ -7134,42 +8675,42 @@
     </row>
     <row r="28" ht="17" spans="3:3">
       <c r="C28" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="29" ht="30" customHeight="1" spans="3:3">
       <c r="C29" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="30" ht="30" customHeight="1" spans="3:3">
       <c r="C30" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="31" ht="17" spans="3:3">
       <c r="C31" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="32" ht="30" customHeight="1" spans="3:3">
       <c r="C32" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="33" ht="17" spans="3:3">
       <c r="C33" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="34" ht="30" customHeight="1" spans="3:3">
       <c r="C34" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="35" ht="17" spans="3:3">
       <c r="C35" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="36" ht="17" spans="3:3">
@@ -7179,22 +8720,22 @@
     </row>
     <row r="37" ht="17" spans="3:3">
       <c r="C37" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="38" ht="30" customHeight="1" spans="3:3">
       <c r="C38" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="39" ht="17" spans="3:3">
       <c r="C39" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="40" ht="17" spans="3:3">
       <c r="C40" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="41" ht="17" spans="3:3">
@@ -7204,52 +8745,52 @@
     </row>
     <row r="42" ht="17" spans="3:3">
       <c r="C42" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="43" ht="30" customHeight="1" spans="3:3">
       <c r="C43" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="44" ht="30" customHeight="1" spans="3:3">
       <c r="C44" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="45" ht="30" customHeight="1" spans="3:3">
       <c r="C45" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="46" ht="17" spans="3:3">
       <c r="C46" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="47" ht="30" customHeight="1" spans="3:3">
       <c r="C47" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="48" ht="17" spans="3:3">
       <c r="C48" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="49" ht="17" spans="2:3">
       <c r="C49" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="50" ht="30" customHeight="1" spans="2:3">
       <c r="C50" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="51" ht="17" spans="2:3">
       <c r="B51" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C51" s="6" t="s">
         <v>12</v>
@@ -7267,17 +8808,17 @@
     </row>
     <row r="54" ht="17" spans="2:3">
       <c r="C54" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="55" ht="17" spans="2:3">
       <c r="C55" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="56" ht="30" customHeight="1" spans="2:3">
       <c r="C56" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="57" ht="17" spans="2:3">
@@ -7287,7 +8828,7 @@
     </row>
     <row r="58" ht="30" customHeight="1" spans="2:3">
       <c r="C58" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="59" ht="17" spans="2:3">
@@ -7302,12 +8843,12 @@
     </row>
     <row r="61" ht="17" spans="2:3">
       <c r="C61" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="62" ht="17" spans="2:3">
       <c r="C62" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="63" ht="17" spans="2:3">
@@ -7317,7 +8858,7 @@
     </row>
     <row r="64" ht="17" spans="2:3">
       <c r="C64" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="65" ht="17" spans="3:3">
@@ -7327,7 +8868,7 @@
     </row>
     <row r="66" ht="17" spans="3:3">
       <c r="C66" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="67" ht="30" customHeight="1" spans="3:3">
@@ -7347,72 +8888,72 @@
     </row>
     <row r="70" ht="17" spans="3:3">
       <c r="C70" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="71" ht="17" spans="3:3">
       <c r="C71" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="72" ht="30" customHeight="1" spans="3:3">
       <c r="C72" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="73" ht="17" spans="3:3">
       <c r="C73" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="74" ht="17" spans="3:3">
       <c r="C74" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="75" ht="17" spans="3:3">
       <c r="C75" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="76" ht="17" spans="3:3">
       <c r="C76" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="77" ht="17" spans="3:3">
       <c r="C77" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="78" ht="30" customHeight="1" spans="3:3">
       <c r="C78" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="79" ht="30" customHeight="1" spans="3:3">
       <c r="C79" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="80" ht="17" spans="3:3">
       <c r="C80" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="81" ht="17" spans="2:3">
       <c r="C81" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="82" ht="17" spans="2:3">
       <c r="C82" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="83" ht="17" spans="2:3">
       <c r="B83" s="6" t="s">
-        <v>57</v>
+        <v>168</v>
       </c>
       <c r="C83" s="6" t="s">
         <v>10</v>
@@ -7425,7 +8966,7 @@
     </row>
     <row r="85" ht="17" spans="2:3">
       <c r="C85" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="86" ht="17" spans="2:3">
@@ -7445,12 +8986,12 @@
     </row>
     <row r="89" ht="30" customHeight="1" spans="2:3">
       <c r="C89" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="90" ht="17" spans="2:3">
       <c r="C90" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="91" ht="17" spans="2:3">
@@ -7465,7 +9006,7 @@
     </row>
     <row r="93" ht="17" spans="2:3">
       <c r="C93" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="94" ht="17" spans="2:3">
@@ -7480,7 +9021,7 @@
     </row>
     <row r="96" ht="30" customHeight="1" spans="2:3">
       <c r="C96" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="97" ht="17" spans="3:3">
@@ -7490,7 +9031,7 @@
     </row>
     <row r="98" ht="17" spans="3:3">
       <c r="C98" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="99" ht="17" spans="3:3">
@@ -7510,7 +9051,7 @@
     </row>
     <row r="102" ht="17" spans="3:3">
       <c r="C102" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="103" ht="17" spans="3:3">
@@ -7520,7 +9061,7 @@
     </row>
     <row r="104" ht="30" customHeight="1" spans="3:3">
       <c r="C104" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="105" ht="17" spans="3:3">
@@ -7530,7 +9071,7 @@
     </row>
     <row r="106" ht="30" customHeight="1" spans="3:3">
       <c r="C106" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="107" ht="17" spans="3:3">
@@ -7540,7 +9081,7 @@
     </row>
     <row r="108" ht="17" spans="3:3">
       <c r="C108" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="109" ht="17" spans="3:3">
@@ -7565,7 +9106,7 @@
     </row>
     <row r="113" ht="17" spans="3:3">
       <c r="C113" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="114" ht="17" spans="3:3">
@@ -7575,12 +9116,12 @@
     </row>
     <row r="115" ht="17" spans="3:3">
       <c r="C115" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="116" ht="17" spans="3:3">
       <c r="C116" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="117" ht="17" spans="3:3">
@@ -7590,7 +9131,7 @@
     </row>
     <row r="118" ht="17" spans="3:3">
       <c r="C118" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -7613,7 +9154,7 @@
   <dimension ref="A1:E114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="18" customHeight="1" outlineLevelCol="4"/>
@@ -7643,8 +9184,8 @@
       <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
-        <v>57</v>
+      <c r="B2">
+        <v>2025</v>
       </c>
       <c r="C2" s="15" t="s">
         <v>178</v>
@@ -7665,7 +9206,7 @@
       </c>
     </row>
     <row r="4" ht="25.5" customHeight="1" spans="1:5">
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="17" t="s">
         <v>181</v>
       </c>
       <c r="D4" s="16">
@@ -7673,7 +9214,7 @@
       </c>
     </row>
     <row r="5" ht="25.5" customHeight="1" spans="1:5">
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="17" t="s">
         <v>182</v>
       </c>
       <c r="D5" s="16">
@@ -7713,7 +9254,7 @@
       </c>
     </row>
     <row r="10" ht="25.5" customHeight="1" spans="1:5">
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="17" t="s">
         <v>187</v>
       </c>
       <c r="D10" s="16">
@@ -7729,7 +9270,7 @@
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1" spans="1:5">
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="17" t="s">
         <v>189</v>
       </c>
       <c r="D12" s="16">
@@ -7777,7 +9318,7 @@
       </c>
     </row>
     <row r="18" ht="38.25" customHeight="1" spans="3:4">
-      <c r="C18" s="15" t="s">
+      <c r="C18" s="17" t="s">
         <v>195</v>
       </c>
       <c r="D18" s="16">
@@ -7817,7 +9358,7 @@
       </c>
     </row>
     <row r="23" ht="38.25" customHeight="1" spans="3:4">
-      <c r="C23" s="15" t="s">
+      <c r="C23" s="17" t="s">
         <v>200</v>
       </c>
       <c r="D23" s="16">
@@ -7825,7 +9366,7 @@
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1" spans="3:4">
-      <c r="C24" s="15" t="s">
+      <c r="C24" s="17" t="s">
         <v>201</v>
       </c>
       <c r="D24" s="16">
@@ -7833,7 +9374,7 @@
       </c>
     </row>
     <row r="25" ht="25.5" customHeight="1" spans="3:4">
-      <c r="C25" s="15" t="s">
+      <c r="C25" s="17" t="s">
         <v>202</v>
       </c>
       <c r="D25" s="16">
@@ -7841,7 +9382,7 @@
       </c>
     </row>
     <row r="26" ht="38.25" customHeight="1" spans="3:4">
-      <c r="C26" s="15" t="s">
+      <c r="C26" s="17" t="s">
         <v>203</v>
       </c>
       <c r="D26" s="16">
@@ -7857,7 +9398,7 @@
       </c>
     </row>
     <row r="28" ht="38.25" customHeight="1" spans="3:4">
-      <c r="C28" s="15" t="s">
+      <c r="C28" s="17" t="s">
         <v>205</v>
       </c>
       <c r="D28" s="16">
@@ -7865,7 +9406,7 @@
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1" spans="3:4">
-      <c r="C29" s="15" t="s">
+      <c r="C29" s="17" t="s">
         <v>206</v>
       </c>
       <c r="D29" s="16">
@@ -7873,7 +9414,7 @@
       </c>
     </row>
     <row r="30" ht="25.5" customHeight="1" spans="3:4">
-      <c r="C30" s="15" t="s">
+      <c r="C30" s="17" t="s">
         <v>207</v>
       </c>
       <c r="D30" s="16">
@@ -7881,7 +9422,7 @@
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1" spans="3:4">
-      <c r="C31" s="15" t="s">
+      <c r="C31" s="17" t="s">
         <v>208</v>
       </c>
       <c r="D31" s="16">
@@ -7889,7 +9430,7 @@
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1" spans="3:4">
-      <c r="C32" s="15" t="s">
+      <c r="C32" s="17" t="s">
         <v>209</v>
       </c>
       <c r="D32" s="16">
@@ -7921,7 +9462,7 @@
       </c>
     </row>
     <row r="36" ht="38.25" customHeight="1" spans="2:4">
-      <c r="C36" s="15" t="s">
+      <c r="C36" s="17" t="s">
         <v>213</v>
       </c>
       <c r="D36" s="16">
@@ -7937,7 +9478,7 @@
       </c>
     </row>
     <row r="38" ht="25.5" customHeight="1" spans="2:4">
-      <c r="C38" s="15" t="s">
+      <c r="C38" s="17" t="s">
         <v>215</v>
       </c>
       <c r="D38" s="16">
@@ -7968,8 +9509,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" ht="15.2" spans="2:4">
-      <c r="C42" s="16" t="s">
+    <row r="42" spans="2:4">
+      <c r="C42" s="18" t="s">
         <v>219</v>
       </c>
       <c r="D42" s="16">
@@ -7977,8 +9518,8 @@
       </c>
     </row>
     <row r="43" ht="25.5" customHeight="1" spans="2:4">
-      <c r="B43" t="s">
-        <v>100</v>
+      <c r="B43">
+        <v>2024</v>
       </c>
       <c r="C43" s="15" t="s">
         <v>220</v>
@@ -7996,7 +9537,7 @@
       </c>
     </row>
     <row r="45" ht="25.5" customHeight="1" spans="2:4">
-      <c r="C45" s="15" t="s">
+      <c r="C45" s="17" t="s">
         <v>221</v>
       </c>
       <c r="D45" s="16">
@@ -8005,7 +9546,7 @@
     </row>
     <row r="46" ht="25.5" customHeight="1" spans="2:4">
       <c r="C46" s="15" t="s">
-        <v>222</v>
+        <v>183</v>
       </c>
       <c r="D46" s="16">
         <v>6</v>
@@ -8013,7 +9554,7 @@
     </row>
     <row r="47" ht="25.5" customHeight="1" spans="2:4">
       <c r="C47" s="15" t="s">
-        <v>223</v>
+        <v>184</v>
       </c>
       <c r="D47" s="16">
         <v>3</v>
@@ -8028,7 +9569,7 @@
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1" spans="3:4">
-      <c r="C49" s="15" t="s">
+      <c r="C49" s="17" t="s">
         <v>187</v>
       </c>
       <c r="D49" s="16">
@@ -8044,7 +9585,7 @@
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1" spans="3:4">
-      <c r="C51" s="15" t="s">
+      <c r="C51" s="17" t="s">
         <v>189</v>
       </c>
       <c r="D51" s="16">
@@ -8068,8 +9609,8 @@
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1" spans="3:4">
-      <c r="C54" s="15" t="s">
-        <v>224</v>
+      <c r="C54" s="17" t="s">
+        <v>222</v>
       </c>
       <c r="D54" s="16">
         <v>1</v>
@@ -8084,15 +9625,15 @@
       </c>
     </row>
     <row r="56" ht="38.25" customHeight="1" spans="3:4">
-      <c r="C56" s="15" t="s">
-        <v>225</v>
+      <c r="C56" s="17" t="s">
+        <v>223</v>
       </c>
       <c r="D56" s="16">
         <v>1</v>
       </c>
     </row>
     <row r="57" ht="38.25" customHeight="1" spans="3:4">
-      <c r="C57" s="15" t="s">
+      <c r="C57" s="17" t="s">
         <v>195</v>
       </c>
       <c r="D57" s="16">
@@ -8109,7 +9650,7 @@
     </row>
     <row r="59" ht="38.25" customHeight="1" spans="3:4">
       <c r="C59" s="15" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D59" s="16">
         <v>2</v>
@@ -8125,14 +9666,14 @@
     </row>
     <row r="61" ht="25.5" customHeight="1" spans="3:4">
       <c r="C61" s="15" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D61" s="16">
         <v>1</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1" spans="3:4">
-      <c r="C62" s="15" t="s">
+      <c r="C62" s="17" t="s">
         <v>201</v>
       </c>
       <c r="D62" s="16">
@@ -8140,48 +9681,48 @@
       </c>
     </row>
     <row r="63" ht="25.5" customHeight="1" spans="3:4">
-      <c r="C63" s="15" t="s">
-        <v>228</v>
+      <c r="C63" s="17" t="s">
+        <v>202</v>
       </c>
       <c r="D63" s="16">
         <v>1</v>
       </c>
     </row>
     <row r="64" ht="38.25" customHeight="1" spans="3:4">
-      <c r="C64" s="15" t="s">
-        <v>229</v>
+      <c r="C64" s="17" t="s">
+        <v>203</v>
       </c>
       <c r="D64" s="16">
         <v>1</v>
       </c>
     </row>
     <row r="65" ht="38.25" customHeight="1" spans="2:4">
-      <c r="C65" s="15" t="s">
-        <v>230</v>
+      <c r="C65" s="17" t="s">
+        <v>205</v>
       </c>
       <c r="D65" s="16">
         <v>9</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1" spans="2:4">
-      <c r="C66" s="15" t="s">
-        <v>231</v>
+      <c r="C66" s="17" t="s">
+        <v>206</v>
       </c>
       <c r="D66" s="16">
         <v>1</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1" spans="2:4">
-      <c r="C67" s="15" t="s">
-        <v>232</v>
+      <c r="C67" s="17" t="s">
+        <v>207</v>
       </c>
       <c r="D67" s="16">
         <v>6</v>
       </c>
     </row>
     <row r="68" ht="25.5" customHeight="1" spans="2:4">
-      <c r="C68" s="15" t="s">
-        <v>233</v>
+      <c r="C68" s="17" t="s">
+        <v>208</v>
       </c>
       <c r="D68" s="16">
         <v>5</v>
@@ -8197,7 +9738,7 @@
     </row>
     <row r="70" ht="25.5" customHeight="1" spans="2:4">
       <c r="C70" s="15" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="D70" s="16">
         <v>2</v>
@@ -8212,15 +9753,15 @@
       </c>
     </row>
     <row r="72" ht="38.25" customHeight="1" spans="2:4">
-      <c r="C72" s="15" t="s">
-        <v>235</v>
+      <c r="C72" s="19" t="s">
+        <v>227</v>
       </c>
       <c r="D72" s="16">
         <v>1</v>
       </c>
     </row>
     <row r="73" ht="38.25" customHeight="1" spans="2:4">
-      <c r="C73" s="15" t="s">
+      <c r="C73" s="17" t="s">
         <v>213</v>
       </c>
       <c r="D73" s="16">
@@ -8228,15 +9769,15 @@
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1" spans="2:4">
-      <c r="C74" s="15" t="s">
+      <c r="C74" s="17" t="s">
         <v>215</v>
       </c>
       <c r="D74" s="16">
         <v>2</v>
       </c>
     </row>
-    <row r="75" ht="15.2" spans="2:4">
-      <c r="C75" s="16" t="s">
+    <row r="75" spans="2:4">
+      <c r="C75" s="18" t="s">
         <v>219</v>
       </c>
       <c r="D75" s="16">
@@ -8244,8 +9785,8 @@
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1" spans="2:4">
-      <c r="B76" t="s">
-        <v>133</v>
+      <c r="B76">
+        <v>2023</v>
       </c>
       <c r="C76" s="15" t="s">
         <v>178</v>
@@ -8255,7 +9796,7 @@
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1" spans="2:4">
-      <c r="C77" s="15" t="s">
+      <c r="C77" s="17" t="s">
         <v>221</v>
       </c>
       <c r="D77" s="16">
@@ -8264,7 +9805,7 @@
     </row>
     <row r="78" ht="25.5" customHeight="1" spans="2:4">
       <c r="C78" s="15" t="s">
-        <v>222</v>
+        <v>183</v>
       </c>
       <c r="D78" s="16">
         <v>6</v>
@@ -8272,7 +9813,7 @@
     </row>
     <row r="79" ht="25.5" customHeight="1" spans="2:4">
       <c r="C79" s="15" t="s">
-        <v>223</v>
+        <v>184</v>
       </c>
       <c r="D79" s="16">
         <v>1</v>
@@ -8280,14 +9821,14 @@
     </row>
     <row r="80" ht="25.5" customHeight="1" spans="2:4">
       <c r="C80" s="15" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="D80" s="16">
         <v>1</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1" spans="3:4">
-      <c r="C81" s="15" t="s">
+      <c r="C81" s="17" t="s">
         <v>187</v>
       </c>
       <c r="D81" s="16">
@@ -8303,7 +9844,7 @@
       </c>
     </row>
     <row r="83" ht="25.5" customHeight="1" spans="3:4">
-      <c r="C83" s="15" t="s">
+      <c r="C83" s="17" t="s">
         <v>189</v>
       </c>
       <c r="D83" s="16">
@@ -8327,16 +9868,16 @@
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1" spans="3:4">
-      <c r="C86" s="15" t="s">
-        <v>224</v>
+      <c r="C86" s="17" t="s">
+        <v>222</v>
       </c>
       <c r="D86" s="16">
         <v>1</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1" spans="3:4">
-      <c r="C87" s="15" t="s">
-        <v>237</v>
+      <c r="C87" s="17" t="s">
+        <v>229</v>
       </c>
       <c r="D87" s="16">
         <v>1</v>
@@ -8351,23 +9892,23 @@
       </c>
     </row>
     <row r="89" ht="38.25" customHeight="1" spans="3:4">
-      <c r="C89" s="15" t="s">
-        <v>238</v>
+      <c r="C89" s="17" t="s">
+        <v>230</v>
       </c>
       <c r="D89" s="16">
         <v>1</v>
       </c>
     </row>
     <row r="90" ht="38.25" customHeight="1" spans="3:4">
-      <c r="C90" s="15" t="s">
-        <v>225</v>
+      <c r="C90" s="17" t="s">
+        <v>223</v>
       </c>
       <c r="D90" s="16">
         <v>3</v>
       </c>
     </row>
     <row r="91" ht="38.25" customHeight="1" spans="3:4">
-      <c r="C91" s="15" t="s">
+      <c r="C91" s="17" t="s">
         <v>195</v>
       </c>
       <c r="D91" s="16">
@@ -8384,7 +9925,7 @@
     </row>
     <row r="93" ht="38.25" customHeight="1" spans="3:4">
       <c r="C93" s="15" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D93" s="16">
         <v>1</v>
@@ -8392,7 +9933,7 @@
     </row>
     <row r="94" ht="38.25" customHeight="1" spans="3:4">
       <c r="C94" s="15" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="D94" s="16">
         <v>1</v>
@@ -8415,7 +9956,7 @@
       </c>
     </row>
     <row r="97" ht="38.25" customHeight="1" spans="3:4">
-      <c r="C97" s="15" t="s">
+      <c r="C97" s="17" t="s">
         <v>200</v>
       </c>
       <c r="D97" s="16">
@@ -8423,72 +9964,72 @@
       </c>
     </row>
     <row r="98" ht="38.25" customHeight="1" spans="3:4">
-      <c r="C98" s="15" t="s">
-        <v>240</v>
+      <c r="C98" s="17" t="s">
+        <v>232</v>
       </c>
       <c r="D98" s="16">
         <v>1</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1" spans="3:4">
-      <c r="C99" s="15" t="s">
-        <v>228</v>
+      <c r="C99" s="17" t="s">
+        <v>202</v>
       </c>
       <c r="D99" s="16">
         <v>2</v>
       </c>
     </row>
     <row r="100" ht="38.25" customHeight="1" spans="3:4">
-      <c r="C100" s="15" t="s">
-        <v>229</v>
+      <c r="C100" s="17" t="s">
+        <v>203</v>
       </c>
       <c r="D100" s="16">
         <v>3</v>
       </c>
     </row>
     <row r="101" ht="38.25" customHeight="1" spans="3:4">
-      <c r="C101" s="15" t="s">
-        <v>230</v>
+      <c r="C101" s="17" t="s">
+        <v>205</v>
       </c>
       <c r="D101" s="16">
         <v>8</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1" spans="3:4">
-      <c r="C102" s="15" t="s">
-        <v>231</v>
+      <c r="C102" s="17" t="s">
+        <v>206</v>
       </c>
       <c r="D102" s="16">
         <v>2</v>
       </c>
     </row>
     <row r="103" ht="25.5" customHeight="1" spans="3:4">
-      <c r="C103" s="15" t="s">
-        <v>232</v>
+      <c r="C103" s="17" t="s">
+        <v>207</v>
       </c>
       <c r="D103" s="16">
         <v>5</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1" spans="3:4">
-      <c r="C104" s="15" t="s">
-        <v>241</v>
+      <c r="C104" s="17" t="s">
+        <v>233</v>
       </c>
       <c r="D104" s="16">
         <v>1</v>
       </c>
     </row>
     <row r="105" ht="25.5" customHeight="1" spans="3:4">
-      <c r="C105" s="15" t="s">
-        <v>233</v>
+      <c r="C105" s="17" t="s">
+        <v>208</v>
       </c>
       <c r="D105" s="16">
         <v>1</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1" spans="3:4">
-      <c r="C106" s="15" t="s">
-        <v>242</v>
+      <c r="C106" s="17" t="s">
+        <v>209</v>
       </c>
       <c r="D106" s="16">
         <v>2</v>
@@ -8504,7 +10045,7 @@
     </row>
     <row r="108" ht="25.5" customHeight="1" spans="3:4">
       <c r="C108" s="15" t="s">
-        <v>243</v>
+        <v>211</v>
       </c>
       <c r="D108" s="16">
         <v>1</v>
@@ -8519,7 +10060,7 @@
       </c>
     </row>
     <row r="110" ht="38.25" customHeight="1" spans="3:4">
-      <c r="C110" s="15" t="s">
+      <c r="C110" s="17" t="s">
         <v>213</v>
       </c>
       <c r="D110" s="16">
@@ -8535,7 +10076,7 @@
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1" spans="3:4">
-      <c r="C112" s="15" t="s">
+      <c r="C112" s="17" t="s">
         <v>215</v>
       </c>
       <c r="D112" s="16">
@@ -8544,14 +10085,14 @@
     </row>
     <row r="113" ht="25.5" customHeight="1" spans="3:4">
       <c r="C113" s="15" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="D113" s="16">
         <v>2</v>
       </c>
     </row>
-    <row r="114" ht="15.2" spans="3:4">
-      <c r="C114" s="16" t="s">
+    <row r="114" spans="3:4">
+      <c r="C114" s="18" t="s">
         <v>219</v>
       </c>
       <c r="D114" s="16">
@@ -8620,13 +10161,13 @@
         <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
     </row>
     <row r="3" ht="17" spans="1:5">
       <c r="B3" s="11"/>
       <c r="C3" s="6" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="D3" s="6">
         <v>4</v>
@@ -8653,7 +10194,7 @@
     <row r="6" ht="17" spans="1:5">
       <c r="B6" s="11"/>
       <c r="C6" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D6" s="6">
         <v>1</v>
@@ -8671,7 +10212,7 @@
     <row r="8" ht="17" spans="1:5">
       <c r="B8" s="11"/>
       <c r="C8" s="6" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="D8" s="6">
         <v>1</v>
@@ -8680,7 +10221,7 @@
     <row r="9" ht="17" spans="1:5">
       <c r="B9" s="11"/>
       <c r="C9" s="6" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="D9" s="6">
         <v>1</v>
@@ -8689,7 +10230,7 @@
     <row r="10" ht="17" spans="1:5">
       <c r="B10" s="11"/>
       <c r="C10" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D10" s="6">
         <v>2</v>
@@ -8698,7 +10239,7 @@
     <row r="11" ht="17" spans="1:5">
       <c r="B11" s="11"/>
       <c r="C11" s="6" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="D11" s="6">
         <v>2</v>
@@ -8716,7 +10257,7 @@
     <row r="13" ht="17" spans="1:5">
       <c r="B13" s="11"/>
       <c r="C13" s="6" t="s">
-        <v>250</v>
+        <v>227</v>
       </c>
       <c r="D13" s="6">
         <v>1</v>
@@ -8725,7 +10266,7 @@
     <row r="14" ht="17" spans="1:5">
       <c r="B14" s="11"/>
       <c r="C14" s="6" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="D14" s="6">
         <v>1</v>
@@ -8734,7 +10275,7 @@
     <row r="15" ht="17" spans="1:5">
       <c r="B15" s="11"/>
       <c r="C15" s="6" t="s">
-        <v>252</v>
+        <v>19</v>
       </c>
       <c r="D15" s="6">
         <v>1</v>
@@ -8761,7 +10302,7 @@
     <row r="18" ht="17" spans="2:4">
       <c r="B18" s="11"/>
       <c r="C18" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D18" s="6">
         <v>1</v>
@@ -8770,7 +10311,7 @@
     <row r="19" ht="17" spans="2:4">
       <c r="B19" s="11"/>
       <c r="C19" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D19" s="6">
         <v>2</v>
@@ -8788,7 +10329,7 @@
     <row r="21" ht="17" spans="2:4">
       <c r="B21" s="11"/>
       <c r="C21" s="6" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="D21" s="6">
         <v>1</v>
@@ -8797,7 +10338,7 @@
     <row r="22" ht="17" spans="2:4">
       <c r="B22" s="11"/>
       <c r="C22" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D22" s="6">
         <v>1</v>
@@ -8824,7 +10365,7 @@
     <row r="25" ht="17" spans="2:4">
       <c r="B25" s="11"/>
       <c r="C25" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D25" s="6">
         <v>1</v>
@@ -8833,7 +10374,7 @@
     <row r="26" ht="17" spans="2:4">
       <c r="B26" s="11"/>
       <c r="C26" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D26" s="6">
         <v>5</v>
@@ -8842,7 +10383,7 @@
     <row r="27" ht="17" spans="2:4">
       <c r="B27" s="11"/>
       <c r="C27" s="6" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="D27" s="6">
         <v>5</v>
@@ -8862,7 +10403,7 @@
     <row r="29" ht="17" spans="2:4">
       <c r="B29" s="6"/>
       <c r="C29" s="6" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="D29" s="6">
         <v>3</v>
@@ -8889,7 +10430,7 @@
     <row r="32" ht="17" spans="2:4">
       <c r="B32" s="6"/>
       <c r="C32" s="6" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="D32" s="6">
         <v>1</v>
@@ -8898,7 +10439,7 @@
     <row r="33" ht="17" spans="2:4">
       <c r="B33" s="6"/>
       <c r="C33" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D33" s="6">
         <v>1</v>
@@ -8907,7 +10448,7 @@
     <row r="34" ht="17" spans="2:4">
       <c r="B34" s="6"/>
       <c r="C34" s="6" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="D34" s="6">
         <v>1</v>
@@ -8934,7 +10475,7 @@
     <row r="37" ht="17" spans="2:4">
       <c r="B37" s="6"/>
       <c r="C37" s="6" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="D37" s="6">
         <v>1</v>
@@ -8952,7 +10493,7 @@
     <row r="39" ht="17" spans="2:4">
       <c r="B39" s="6"/>
       <c r="C39" s="6" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="D39" s="6">
         <v>1</v>
@@ -8961,7 +10502,7 @@
     <row r="40" ht="17" spans="2:4">
       <c r="B40" s="6"/>
       <c r="C40" s="6" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="D40" s="6">
         <v>1</v>
@@ -8970,7 +10511,7 @@
     <row r="41" ht="17" spans="2:4">
       <c r="B41" s="6"/>
       <c r="C41" s="6" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="D41" s="6">
         <v>4</v>
@@ -8979,7 +10520,7 @@
     <row r="42" ht="17" spans="2:4">
       <c r="B42" s="6"/>
       <c r="C42" s="6" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="D42" s="6">
         <v>1</v>
@@ -8997,7 +10538,7 @@
     <row r="44" ht="17" spans="2:4">
       <c r="B44" s="6"/>
       <c r="C44" s="6" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="D44" s="6">
         <v>1</v>
@@ -9006,7 +10547,7 @@
     <row r="45" ht="17" spans="2:4">
       <c r="B45" s="6"/>
       <c r="C45" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D45" s="6">
         <v>1</v>
@@ -9015,7 +10556,7 @@
     <row r="46" ht="17" spans="2:4">
       <c r="B46" s="6"/>
       <c r="C46" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D46" s="6">
         <v>1</v>
@@ -9024,7 +10565,7 @@
     <row r="47" ht="17" spans="2:4">
       <c r="B47" s="6"/>
       <c r="C47" s="6" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="D47" s="6">
         <v>1</v>
@@ -9042,7 +10583,7 @@
     <row r="49" ht="17" spans="2:4">
       <c r="B49" s="6"/>
       <c r="C49" s="6" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="D49" s="6">
         <v>1</v>
@@ -9051,7 +10592,7 @@
     <row r="50" ht="17" spans="2:4">
       <c r="B50" s="6"/>
       <c r="C50" s="6" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="D50" s="6">
         <v>1</v>
@@ -9069,7 +10610,7 @@
     <row r="52" ht="17" spans="2:4">
       <c r="B52" s="6"/>
       <c r="C52" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D52" s="6">
         <v>2</v>
@@ -9078,7 +10619,7 @@
     <row r="53" ht="17" spans="2:4">
       <c r="B53" s="6"/>
       <c r="C53" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D53" s="6">
         <v>7</v>
@@ -9087,7 +10628,7 @@
     <row r="54" ht="17" spans="2:4">
       <c r="B54" s="6"/>
       <c r="C54" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D54" s="6">
         <v>2</v>
@@ -9096,7 +10637,7 @@
     <row r="55" ht="17" spans="2:4">
       <c r="B55" s="6"/>
       <c r="C55" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D55" s="6">
         <v>3</v>
@@ -9105,7 +10646,7 @@
     <row r="56" ht="17" spans="2:4">
       <c r="B56" s="6"/>
       <c r="C56" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D56" s="6">
         <v>2</v>
@@ -9114,7 +10655,7 @@
     <row r="57" ht="17" spans="2:4">
       <c r="B57" s="6"/>
       <c r="C57" s="6" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="D57" s="6">
         <v>4</v>
@@ -9174,19 +10715,19 @@
         <v>2025</v>
       </c>
       <c r="C2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D2">
         <v>15</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
     </row>
     <row r="3" ht="15.2" spans="1:5">
       <c r="B3" s="13"/>
       <c r="C3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D3">
         <v>12</v>
@@ -9195,7 +10736,7 @@
     <row r="4" ht="15.2" spans="1:5">
       <c r="B4" s="13"/>
       <c r="C4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D4">
         <v>16</v>
@@ -9204,16 +10745,16 @@
     <row r="5" ht="15.2" spans="1:5">
       <c r="B5" s="13"/>
       <c r="C5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D5">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" ht="15.2" spans="1:5">
       <c r="B6" s="13"/>
       <c r="C6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D6">
         <v>6</v>
@@ -9222,16 +10763,16 @@
     <row r="7" ht="16" spans="1:5">
       <c r="B7" s="13"/>
       <c r="C7" s="8" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="D7">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" ht="15.2" spans="1:5">
       <c r="B8" s="13"/>
       <c r="C8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D8">
         <v>2</v>
@@ -9240,7 +10781,7 @@
     <row r="9" ht="15.2" spans="1:5">
       <c r="B9" s="13"/>
       <c r="C9" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="D9">
         <v>2</v>
@@ -9249,7 +10790,7 @@
     <row r="10" ht="15.2" spans="1:5">
       <c r="B10" s="13"/>
       <c r="C10" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -9258,7 +10799,7 @@
     <row r="11" ht="15.2" spans="1:5">
       <c r="B11" s="13"/>
       <c r="C11" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -9267,7 +10808,7 @@
     <row r="12" ht="15.2" spans="1:5">
       <c r="B12" s="13"/>
       <c r="C12" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -9276,7 +10817,7 @@
     <row r="13" ht="15.2" spans="1:5">
       <c r="B13" s="13"/>
       <c r="C13" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -9285,7 +10826,7 @@
     <row r="14" ht="15.2" spans="1:5">
       <c r="B14" s="13"/>
       <c r="C14" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -9294,7 +10835,7 @@
     <row r="15" ht="15.2" spans="1:5">
       <c r="B15" s="13"/>
       <c r="C15" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -9303,7 +10844,7 @@
     <row r="16" ht="15.2" spans="1:5">
       <c r="B16" s="13"/>
       <c r="C16" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -9312,7 +10853,7 @@
     <row r="17" ht="15.2" spans="2:4">
       <c r="B17" s="13"/>
       <c r="C17" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -9321,7 +10862,7 @@
     <row r="18" ht="15.2" spans="2:4">
       <c r="B18" s="13"/>
       <c r="C18" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -9330,7 +10871,7 @@
     <row r="19" ht="15.2" spans="2:4">
       <c r="B19" s="13"/>
       <c r="C19" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="D19">
         <v>2</v>
@@ -9339,7 +10880,7 @@
     <row r="20" ht="15.2" spans="2:4">
       <c r="B20" s="13"/>
       <c r="C20" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -9348,16 +10889,16 @@
     <row r="21" ht="15.2" spans="2:4">
       <c r="B21" s="13"/>
       <c r="C21" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="D21">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:4">
+    <row r="22" ht="15.2" spans="2:4">
       <c r="B22" s="13"/>
       <c r="C22" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -9366,25 +10907,25 @@
     <row r="23" ht="16" spans="2:4">
       <c r="B23" s="13"/>
       <c r="C23" s="8" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="D23">
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="2:4">
+    <row r="24" ht="16" spans="2:4">
       <c r="B24" s="13"/>
       <c r="C24" s="14" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="D24">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:4">
+    <row r="25" ht="15.2" spans="2:4">
       <c r="B25" s="13"/>
       <c r="C25" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -9393,7 +10934,7 @@
     <row r="26" ht="15.2" spans="2:4">
       <c r="B26" s="13"/>
       <c r="C26" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="D26">
         <v>1</v>
@@ -9402,7 +10943,7 @@
     <row r="27" ht="15.2" spans="2:4">
       <c r="B27" s="13"/>
       <c r="C27" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="D27">
         <v>1</v>
@@ -9411,7 +10952,7 @@
     <row r="28" ht="15.2" spans="2:4">
       <c r="B28" s="13"/>
       <c r="C28" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="D28">
         <v>1</v>
@@ -9420,7 +10961,7 @@
     <row r="29" ht="15.2" spans="2:4">
       <c r="B29" s="13"/>
       <c r="C29" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="D29">
         <v>1</v>
@@ -9429,7 +10970,7 @@
     <row r="30" ht="15.2" spans="2:4">
       <c r="B30" s="13"/>
       <c r="C30" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="D30">
         <v>1</v>
@@ -9438,7 +10979,7 @@
     <row r="31" ht="15.2" spans="2:4">
       <c r="B31" s="13"/>
       <c r="C31" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="D31">
         <v>1</v>
@@ -9447,7 +10988,7 @@
     <row r="32" ht="15.2" spans="2:4">
       <c r="B32" s="13"/>
       <c r="C32" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="D32">
         <v>1</v>
@@ -9456,7 +10997,7 @@
     <row r="33" ht="15.2" spans="2:4">
       <c r="B33" s="13"/>
       <c r="C33" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
       <c r="D33">
         <v>5</v>
@@ -9465,7 +11006,7 @@
     <row r="34" ht="15.2" spans="2:4">
       <c r="B34" s="13"/>
       <c r="C34" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="D34">
         <v>7</v>
@@ -9474,7 +11015,7 @@
     <row r="35" ht="15.2" spans="2:4">
       <c r="B35" s="13"/>
       <c r="C35" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="D35">
         <v>10</v>
@@ -9483,52 +11024,52 @@
     <row r="36" ht="15.2" spans="2:4">
       <c r="B36" s="13"/>
       <c r="C36" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="D36">
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="2:4">
+    <row r="37" ht="15.2" spans="2:4">
       <c r="B37" s="13"/>
       <c r="C37" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="D37">
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="2:4">
+    <row r="38" ht="15.2" spans="2:4">
       <c r="B38" s="13"/>
       <c r="C38" s="14" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="D38">
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="2:4">
+    <row r="39" ht="15.2" spans="2:4">
       <c r="B39" s="13"/>
       <c r="C39" s="14" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="D39">
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="2:4">
+    <row r="40" ht="15.2" spans="2:4">
       <c r="B40" s="13"/>
       <c r="C40" s="14" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="D40">
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="2:4">
+    <row r="41" ht="15.2" spans="2:4">
       <c r="B41" s="13"/>
       <c r="C41" t="s">
-        <v>297</v>
+        <v>285</v>
       </c>
       <c r="D41">
         <v>1</v>
@@ -9537,16 +11078,16 @@
     <row r="42" ht="16" spans="2:4">
       <c r="B42" s="13"/>
       <c r="C42" s="14" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="D42">
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="2:4">
+    <row r="43" ht="15.2" spans="2:4">
       <c r="B43" s="13"/>
       <c r="C43" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="D43">
         <v>1</v>
@@ -9555,7 +11096,7 @@
     <row r="44" ht="15.2" spans="2:4">
       <c r="B44" s="13"/>
       <c r="C44" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="D44">
         <v>1</v>
@@ -9564,7 +11105,7 @@
     <row r="45" ht="15.2" spans="2:4">
       <c r="B45" s="13"/>
       <c r="C45" t="s">
-        <v>301</v>
+        <v>289</v>
       </c>
       <c r="D45">
         <v>1</v>
@@ -9573,7 +11114,7 @@
     <row r="46" ht="15.2" spans="2:4">
       <c r="B46" s="13"/>
       <c r="C46" t="s">
-        <v>302</v>
+        <v>290</v>
       </c>
       <c r="D46">
         <v>1</v>
@@ -9582,7 +11123,7 @@
     <row r="47" ht="15.2" spans="2:4">
       <c r="B47" s="13"/>
       <c r="C47" t="s">
-        <v>303</v>
+        <v>291</v>
       </c>
       <c r="D47">
         <v>1</v>
@@ -9591,7 +11132,7 @@
     <row r="48" ht="15.2" spans="2:4">
       <c r="B48" s="13"/>
       <c r="C48" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
       <c r="D48">
         <v>1</v>
@@ -9600,7 +11141,7 @@
     <row r="49" ht="15.2" spans="2:4">
       <c r="B49" s="13"/>
       <c r="C49" t="s">
-        <v>305</v>
+        <v>293</v>
       </c>
       <c r="D49">
         <v>1</v>
@@ -9609,7 +11150,7 @@
     <row r="50" ht="15.2" spans="2:4">
       <c r="B50" s="13"/>
       <c r="C50" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="D50">
         <v>1</v>
@@ -9618,7 +11159,7 @@
     <row r="51" ht="15.2" spans="2:4">
       <c r="B51" s="13"/>
       <c r="C51" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
       <c r="D51">
         <v>1</v>
@@ -9627,7 +11168,7 @@
     <row r="52" ht="15.2" spans="2:4">
       <c r="B52" s="13"/>
       <c r="C52" t="s">
-        <v>308</v>
+        <v>296</v>
       </c>
       <c r="D52">
         <v>1</v>
@@ -9651,7 +11192,7 @@
   <dimension ref="A1:E64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="F28" sqref="F28:G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="18" customHeight="1" outlineLevelCol="4"/>
@@ -9686,19 +11227,19 @@
         <v>2025</v>
       </c>
       <c r="C2" t="s">
-        <v>309</v>
+        <v>297</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="3" ht="15.2" spans="1:5">
       <c r="B3" s="13"/>
       <c r="C3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -9707,16 +11248,16 @@
     <row r="4" ht="16" spans="1:5">
       <c r="B4" s="13"/>
       <c r="C4" s="14" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" ht="15.2" spans="1:5">
       <c r="B5" s="13"/>
       <c r="C5" t="s">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -9725,7 +11266,7 @@
     <row r="6" ht="15.2" spans="1:5">
       <c r="B6" s="13"/>
       <c r="C6" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -9734,7 +11275,7 @@
     <row r="7" ht="15.2" spans="1:5">
       <c r="B7" s="13"/>
       <c r="C7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D7">
         <v>11</v>
@@ -9743,7 +11284,7 @@
     <row r="8" ht="15.2" spans="1:5">
       <c r="B8" s="13"/>
       <c r="C8" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -9752,7 +11293,7 @@
     <row r="9" ht="15.2" spans="1:5">
       <c r="B9" s="13"/>
       <c r="C9" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -9761,7 +11302,7 @@
     <row r="10" ht="15.2" spans="1:5">
       <c r="B10" s="13"/>
       <c r="C10" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -9770,7 +11311,7 @@
     <row r="11" ht="15.2" spans="1:5">
       <c r="B11" s="13"/>
       <c r="C11" t="s">
-        <v>316</v>
+        <v>304</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -9779,7 +11320,7 @@
     <row r="12" ht="15.2" spans="1:5">
       <c r="B12" s="13"/>
       <c r="C12" t="s">
-        <v>317</v>
+        <v>305</v>
       </c>
       <c r="D12">
         <v>5</v>
@@ -9788,7 +11329,7 @@
     <row r="13" ht="15.2" spans="1:5">
       <c r="B13" s="13"/>
       <c r="C13" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
       <c r="D13">
         <v>3</v>
@@ -9797,7 +11338,7 @@
     <row r="14" ht="15.2" spans="1:5">
       <c r="B14" s="13"/>
       <c r="C14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D14">
         <v>21</v>
@@ -9806,7 +11347,7 @@
     <row r="15" ht="15.2" spans="1:5">
       <c r="B15" s="13"/>
       <c r="C15" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D15">
         <v>10</v>
@@ -9815,7 +11356,7 @@
     <row r="16" ht="15.2" spans="1:5">
       <c r="B16" s="13"/>
       <c r="C16" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D16">
         <v>5</v>
@@ -9824,7 +11365,7 @@
     <row r="17" ht="15.2" spans="2:4">
       <c r="B17" s="13"/>
       <c r="C17" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="D17">
         <v>4</v>
@@ -9833,7 +11374,7 @@
     <row r="18" ht="15.2" spans="2:4">
       <c r="B18" s="13"/>
       <c r="C18" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
       <c r="D18">
         <v>2</v>
@@ -9842,7 +11383,7 @@
     <row r="19" ht="15.2" spans="2:4">
       <c r="B19" s="13"/>
       <c r="C19" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -9851,7 +11392,7 @@
     <row r="20" ht="15.2" spans="2:4">
       <c r="B20" s="13"/>
       <c r="C20" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -9860,7 +11401,7 @@
     <row r="21" ht="15.2" spans="2:4">
       <c r="B21" s="13"/>
       <c r="C21" t="s">
-        <v>321</v>
+        <v>309</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -9869,7 +11410,7 @@
     <row r="22" ht="15.2" spans="2:4">
       <c r="B22" s="13"/>
       <c r="C22" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D22">
         <v>2</v>
@@ -9878,7 +11419,7 @@
     <row r="23" ht="15.2" spans="2:4">
       <c r="B23" s="13"/>
       <c r="C23" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -9887,7 +11428,7 @@
     <row r="24" ht="15.2" spans="2:4">
       <c r="B24" s="13"/>
       <c r="C24" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D24">
         <v>2</v>
@@ -9896,16 +11437,16 @@
     <row r="25" ht="15.2" spans="2:4">
       <c r="B25" s="13"/>
       <c r="C25" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="D25">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:4">
+    <row r="26" ht="15.2" spans="2:4">
       <c r="B26" s="13"/>
       <c r="C26" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="D26">
         <v>1</v>
@@ -9914,34 +11455,34 @@
     <row r="27" ht="16" spans="2:4">
       <c r="B27" s="13"/>
       <c r="C27" s="8" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="D27">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:4">
+    <row r="28" ht="15.2" spans="2:4">
       <c r="B28" s="13"/>
       <c r="C28" t="s">
-        <v>325</v>
+        <v>313</v>
       </c>
       <c r="D28">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:4">
+    <row r="29" ht="16" spans="2:4">
       <c r="B29" s="13"/>
       <c r="C29" s="8" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="D29">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:4">
+    <row r="30" ht="15.2" spans="2:4">
       <c r="B30" s="13"/>
       <c r="C30" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="D30">
         <v>1</v>
@@ -9950,7 +11491,7 @@
     <row r="31" ht="15.2" spans="2:4">
       <c r="B31" s="13"/>
       <c r="C31" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="D31">
         <v>1</v>
@@ -9959,7 +11500,7 @@
     <row r="32" ht="15.2" spans="2:4">
       <c r="B32" s="13"/>
       <c r="C32" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="D32">
         <v>5</v>
@@ -9968,7 +11509,7 @@
     <row r="33" ht="15.2" spans="2:4">
       <c r="B33" s="13"/>
       <c r="C33" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="D33">
         <v>4</v>
@@ -9977,7 +11518,7 @@
     <row r="34" ht="15.2" spans="2:4">
       <c r="B34" s="13"/>
       <c r="C34" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="D34">
         <v>1</v>
@@ -9986,7 +11527,7 @@
     <row r="35" ht="15.2" spans="2:4">
       <c r="B35" s="13"/>
       <c r="C35" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="D35">
         <v>1</v>
@@ -9995,7 +11536,7 @@
     <row r="36" ht="15.2" spans="2:4">
       <c r="B36" s="13"/>
       <c r="C36" t="s">
-        <v>333</v>
+        <v>321</v>
       </c>
       <c r="D36">
         <v>2</v>
@@ -10004,7 +11545,7 @@
     <row r="37" ht="15.2" spans="2:4">
       <c r="B37" s="13"/>
       <c r="C37" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="D37">
         <v>4</v>
@@ -10013,7 +11554,7 @@
     <row r="38" ht="15.2" spans="2:4">
       <c r="B38" s="13"/>
       <c r="C38" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="D38">
         <v>1</v>
@@ -10022,7 +11563,7 @@
     <row r="39" ht="15.2" spans="2:4">
       <c r="B39" s="13"/>
       <c r="C39" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="D39">
         <v>1</v>
@@ -10031,7 +11572,7 @@
     <row r="40" ht="15.2" spans="2:4">
       <c r="B40" s="13"/>
       <c r="C40" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="D40">
         <v>1</v>
@@ -10040,7 +11581,7 @@
     <row r="41" ht="15.2" spans="2:4">
       <c r="B41" s="13"/>
       <c r="C41" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="D41">
         <v>1</v>
@@ -10049,7 +11590,7 @@
     <row r="42" ht="15.2" spans="2:4">
       <c r="B42" s="13"/>
       <c r="C42" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="D42">
         <v>1</v>
@@ -10058,7 +11599,7 @@
     <row r="43" ht="15.2" spans="2:4">
       <c r="B43" s="13"/>
       <c r="C43" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="D43">
         <v>3</v>
@@ -10067,7 +11608,7 @@
     <row r="44" ht="15.2" spans="2:4">
       <c r="B44" s="13"/>
       <c r="C44" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="D44">
         <v>3</v>
@@ -10076,7 +11617,7 @@
     <row r="45" ht="15.2" spans="2:4">
       <c r="B45" s="13"/>
       <c r="C45" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="D45">
         <v>5</v>
@@ -10085,7 +11626,7 @@
     <row r="46" ht="15.2" spans="2:4">
       <c r="B46" s="13"/>
       <c r="C46" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="D46">
         <v>1</v>
@@ -10094,7 +11635,7 @@
     <row r="47" ht="15.2" spans="2:4">
       <c r="B47" s="13"/>
       <c r="C47" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="D47">
         <v>1</v>
@@ -10103,7 +11644,7 @@
     <row r="48" ht="15.2" spans="2:4">
       <c r="B48" s="13"/>
       <c r="C48" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="D48">
         <v>1</v>
@@ -10112,7 +11653,7 @@
     <row r="49" ht="15.2" spans="2:4">
       <c r="B49" s="13"/>
       <c r="C49" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="D49">
         <v>7</v>
@@ -10121,7 +11662,7 @@
     <row r="50" ht="15.2" spans="2:4">
       <c r="B50" s="13"/>
       <c r="C50" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="D50">
         <v>5</v>
@@ -10130,7 +11671,7 @@
     <row r="51" ht="15.2" spans="2:4">
       <c r="B51" s="13"/>
       <c r="C51" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
       <c r="D51">
         <v>3</v>
@@ -10139,7 +11680,7 @@
     <row r="52" ht="15.2" spans="2:4">
       <c r="B52" s="13"/>
       <c r="C52" t="s">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="D52">
         <v>2</v>
@@ -10148,7 +11689,7 @@
     <row r="53" ht="15.2" spans="2:4">
       <c r="B53" s="13"/>
       <c r="C53" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="D53">
         <v>1</v>
@@ -10166,7 +11707,7 @@
     <row r="55" ht="15.2" spans="2:4">
       <c r="B55" s="13"/>
       <c r="C55" t="s">
-        <v>346</v>
+        <v>334</v>
       </c>
       <c r="D55">
         <v>1</v>
@@ -10175,7 +11716,7 @@
     <row r="56" ht="15.2" spans="2:4">
       <c r="B56" s="13"/>
       <c r="C56" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
       <c r="D56">
         <v>2</v>
@@ -10184,7 +11725,7 @@
     <row r="57" ht="15.2" spans="2:4">
       <c r="B57" s="13"/>
       <c r="C57" t="s">
-        <v>348</v>
+        <v>336</v>
       </c>
       <c r="D57">
         <v>1</v>
@@ -10193,7 +11734,7 @@
     <row r="58" ht="15.2" spans="2:4">
       <c r="B58" s="13"/>
       <c r="C58" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="D58">
         <v>1</v>
@@ -10202,7 +11743,7 @@
     <row r="59" ht="15.2" spans="2:4">
       <c r="B59" s="13"/>
       <c r="C59" t="s">
-        <v>350</v>
+        <v>338</v>
       </c>
       <c r="D59">
         <v>1</v>
@@ -10211,7 +11752,7 @@
     <row r="60" ht="15.2" spans="2:4">
       <c r="B60" s="13"/>
       <c r="C60" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="D60">
         <v>1</v>
@@ -10220,34 +11761,34 @@
     <row r="61" ht="15.2" spans="2:4">
       <c r="B61" s="13"/>
       <c r="C61" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="D61">
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="2:4">
+    <row r="62" ht="15.2" spans="2:4">
       <c r="B62" s="13"/>
       <c r="C62" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="D62">
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="2:4">
+    <row r="63" ht="15.2" spans="2:4">
       <c r="B63" s="13"/>
       <c r="C63" s="14" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="D63">
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="2:4">
+    <row r="64" ht="15.2" spans="2:4">
       <c r="B64" s="13"/>
       <c r="C64" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
       <c r="D64">
         <v>1</v>
